--- a/05_create_sql_queries_using_excel_concatenate_function/customers.xlsx
+++ b/05_create_sql_queries_using_excel_concatenate_function/customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikep\OneDrive\Desktop\python\wtw_error_batch_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147C1F69-9136-475D-8050-43479E136081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF87D5F-0ED3-47C1-82A5-7E84789732B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5676,8 +5676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5757,8 +5757,8 @@
         <v>1</v>
       </c>
       <c r="K2" t="str">
-        <f>CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C2,"' AND last_name LIKE '",$D2,"' AND email LIKE '",$E2,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jared' AND last_name LIKE 'Ely' AND email LIKE 'jared.ely@sakilacustomer.org' FROM customer</v>
+        <f>CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C2,"' AND last_name LIKE '",$D2,"' AND email LIKE '",$E2,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jared' AND last_name LIKE 'Ely' AND email LIKE 'jared.ely@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5793,8 +5793,8 @@
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="0">CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C3,"' AND last_name LIKE '",$D3,"' AND email LIKE '",$E3,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Mary' AND last_name LIKE 'Smith' AND email LIKE 'mary.smith@sakilacustomer.org' FROM customer</v>
+        <f t="shared" ref="K3:K66" si="0">CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C3,"' AND last_name LIKE '",$D3,"' AND email LIKE '",$E3,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Mary' AND last_name LIKE 'Smith' AND email LIKE 'mary.smith@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Patricia' AND last_name LIKE 'Johnson' AND email LIKE 'patricia.johnson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Patricia' AND last_name LIKE 'Johnson' AND email LIKE 'patricia.johnson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Linda' AND last_name LIKE 'Williams' AND email LIKE 'linda.williams@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Linda' AND last_name LIKE 'Williams' AND email LIKE 'linda.williams@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Barbara' AND last_name LIKE 'Jones' AND email LIKE 'barbara.jones@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Barbara' AND last_name LIKE 'Jones' AND email LIKE 'barbara.jones@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Elizabeth' AND last_name LIKE 'Brown' AND email LIKE 'elizabeth.brown@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Elizabeth' AND last_name LIKE 'Brown' AND email LIKE 'elizabeth.brown@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jennifer' AND last_name LIKE 'Davis' AND email LIKE 'jennifer.davis@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jennifer' AND last_name LIKE 'Davis' AND email LIKE 'jennifer.davis@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Maria' AND last_name LIKE 'Miller' AND email LIKE 'maria.miller@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Maria' AND last_name LIKE 'Miller' AND email LIKE 'maria.miller@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Susan' AND last_name LIKE 'Wilson' AND email LIKE 'susan.wilson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Susan' AND last_name LIKE 'Wilson' AND email LIKE 'susan.wilson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Margaret' AND last_name LIKE 'Moore' AND email LIKE 'margaret.moore@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Margaret' AND last_name LIKE 'Moore' AND email LIKE 'margaret.moore@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dorothy' AND last_name LIKE 'Taylor' AND email LIKE 'dorothy.taylor@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dorothy' AND last_name LIKE 'Taylor' AND email LIKE 'dorothy.taylor@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lisa' AND last_name LIKE 'Anderson' AND email LIKE 'lisa.anderson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lisa' AND last_name LIKE 'Anderson' AND email LIKE 'lisa.anderson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Nancy' AND last_name LIKE 'Thomas' AND email LIKE 'nancy.thomas@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Nancy' AND last_name LIKE 'Thomas' AND email LIKE 'nancy.thomas@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Karen' AND last_name LIKE 'Jackson' AND email LIKE 'karen.jackson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Karen' AND last_name LIKE 'Jackson' AND email LIKE 'karen.jackson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Betty' AND last_name LIKE 'White' AND email LIKE 'betty.white@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Betty' AND last_name LIKE 'White' AND email LIKE 'betty.white@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Helen' AND last_name LIKE 'Harris' AND email LIKE 'helen.harris@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Helen' AND last_name LIKE 'Harris' AND email LIKE 'helen.harris@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sandra' AND last_name LIKE 'Martin' AND email LIKE 'sandra.martin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sandra' AND last_name LIKE 'Martin' AND email LIKE 'sandra.martin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6370,7 +6370,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Donna' AND last_name LIKE 'Thompson' AND email LIKE 'donna.thompson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Donna' AND last_name LIKE 'Thompson' AND email LIKE 'donna.thompson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Carol' AND last_name LIKE 'Garcia' AND email LIKE 'carol.garcia@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Carol' AND last_name LIKE 'Garcia' AND email LIKE 'carol.garcia@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ruth' AND last_name LIKE 'Martinez' AND email LIKE 'ruth.martinez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ruth' AND last_name LIKE 'Martinez' AND email LIKE 'ruth.martinez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sharon' AND last_name LIKE 'Robinson' AND email LIKE 'sharon.robinson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sharon' AND last_name LIKE 'Robinson' AND email LIKE 'sharon.robinson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Michelle' AND last_name LIKE 'Clark' AND email LIKE 'michelle.clark@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Michelle' AND last_name LIKE 'Clark' AND email LIKE 'michelle.clark@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Laura' AND last_name LIKE 'Rodriguez' AND email LIKE 'laura.rodriguez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Laura' AND last_name LIKE 'Rodriguez' AND email LIKE 'laura.rodriguez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sarah' AND last_name LIKE 'Lewis' AND email LIKE 'sarah.lewis@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sarah' AND last_name LIKE 'Lewis' AND email LIKE 'sarah.lewis@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kimberly' AND last_name LIKE 'Lee' AND email LIKE 'kimberly.lee@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kimberly' AND last_name LIKE 'Lee' AND email LIKE 'kimberly.lee@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Deborah' AND last_name LIKE 'Walker' AND email LIKE 'deborah.walker@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Deborah' AND last_name LIKE 'Walker' AND email LIKE 'deborah.walker@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jessica' AND last_name LIKE 'Hall' AND email LIKE 'jessica.hall@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jessica' AND last_name LIKE 'Hall' AND email LIKE 'jessica.hall@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Shirley' AND last_name LIKE 'Allen' AND email LIKE 'shirley.allen@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Shirley' AND last_name LIKE 'Allen' AND email LIKE 'shirley.allen@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Cynthia' AND last_name LIKE 'Young' AND email LIKE 'cynthia.young@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Cynthia' AND last_name LIKE 'Young' AND email LIKE 'cynthia.young@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6802,7 +6802,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Angela' AND last_name LIKE 'Hernandez' AND email LIKE 'angela.hernandez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Angela' AND last_name LIKE 'Hernandez' AND email LIKE 'angela.hernandez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Melissa' AND last_name LIKE 'King' AND email LIKE 'melissa.king@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Melissa' AND last_name LIKE 'King' AND email LIKE 'melissa.king@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Brenda' AND last_name LIKE 'Wright' AND email LIKE 'brenda.wright@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Brenda' AND last_name LIKE 'Wright' AND email LIKE 'brenda.wright@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Amy' AND last_name LIKE 'Lopez' AND email LIKE 'amy.lopez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Amy' AND last_name LIKE 'Lopez' AND email LIKE 'amy.lopez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Anna' AND last_name LIKE 'Hill' AND email LIKE 'anna.hill@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Anna' AND last_name LIKE 'Hill' AND email LIKE 'anna.hill@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rebecca' AND last_name LIKE 'Scott' AND email LIKE 'rebecca.scott@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rebecca' AND last_name LIKE 'Scott' AND email LIKE 'rebecca.scott@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Virginia' AND last_name LIKE 'Green' AND email LIKE 'virginia.green@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Virginia' AND last_name LIKE 'Green' AND email LIKE 'virginia.green@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kathleen' AND last_name LIKE 'Adams' AND email LIKE 'kathleen.adams@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kathleen' AND last_name LIKE 'Adams' AND email LIKE 'kathleen.adams@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Pamela' AND last_name LIKE 'Baker' AND email LIKE 'pamela.baker@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Pamela' AND last_name LIKE 'Baker' AND email LIKE 'pamela.baker@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="K40" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Martha' AND last_name LIKE 'Gonzalez' AND email LIKE 'martha.gonzalez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Martha' AND last_name LIKE 'Gonzalez' AND email LIKE 'martha.gonzalez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -7162,7 +7162,7 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Debra' AND last_name LIKE 'Nelson' AND email LIKE 'debra.nelson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Debra' AND last_name LIKE 'Nelson' AND email LIKE 'debra.nelson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="K42" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Amanda' AND last_name LIKE 'Carter' AND email LIKE 'amanda.carter@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Amanda' AND last_name LIKE 'Carter' AND email LIKE 'amanda.carter@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -7234,7 +7234,7 @@
       </c>
       <c r="K43" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Stephanie' AND last_name LIKE 'Mitchell' AND email LIKE 'stephanie.mitchell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Stephanie' AND last_name LIKE 'Mitchell' AND email LIKE 'stephanie.mitchell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="K44" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Carolyn' AND last_name LIKE 'Perez' AND email LIKE 'carolyn.perez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Carolyn' AND last_name LIKE 'Perez' AND email LIKE 'carolyn.perez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="K45" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Christine' AND last_name LIKE 'Roberts' AND email LIKE 'christine.roberts@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Christine' AND last_name LIKE 'Roberts' AND email LIKE 'christine.roberts@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="K46" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marie' AND last_name LIKE 'Turner' AND email LIKE 'marie.turner@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marie' AND last_name LIKE 'Turner' AND email LIKE 'marie.turner@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Janet' AND last_name LIKE 'Phillips' AND email LIKE 'janet.phillips@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Janet' AND last_name LIKE 'Phillips' AND email LIKE 'janet.phillips@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="K48" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Catherine' AND last_name LIKE 'Campbell' AND email LIKE 'catherine.campbell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Catherine' AND last_name LIKE 'Campbell' AND email LIKE 'catherine.campbell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="K49" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Frances' AND last_name LIKE 'Parker' AND email LIKE 'frances.parker@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Frances' AND last_name LIKE 'Parker' AND email LIKE 'frances.parker@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="K50" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ann' AND last_name LIKE 'Evans' AND email LIKE 'ann.evans@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ann' AND last_name LIKE 'Evans' AND email LIKE 'ann.evans@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="K51" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Joyce' AND last_name LIKE 'Edwards' AND email LIKE 'joyce.edwards@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Joyce' AND last_name LIKE 'Edwards' AND email LIKE 'joyce.edwards@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="K52" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Diane' AND last_name LIKE 'Collins' AND email LIKE 'diane.collins@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Diane' AND last_name LIKE 'Collins' AND email LIKE 'diane.collins@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Alice' AND last_name LIKE 'Stewart' AND email LIKE 'alice.stewart@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Alice' AND last_name LIKE 'Stewart' AND email LIKE 'alice.stewart@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="K54" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Julie' AND last_name LIKE 'Sanchez' AND email LIKE 'julie.sanchez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Julie' AND last_name LIKE 'Sanchez' AND email LIKE 'julie.sanchez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="K55" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Heather' AND last_name LIKE 'Morris' AND email LIKE 'heather.morris@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Heather' AND last_name LIKE 'Morris' AND email LIKE 'heather.morris@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="K56" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Teresa' AND last_name LIKE 'Rogers' AND email LIKE 'teresa.rogers@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Teresa' AND last_name LIKE 'Rogers' AND email LIKE 'teresa.rogers@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="K57" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Doris' AND last_name LIKE 'Reed' AND email LIKE 'doris.reed@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Doris' AND last_name LIKE 'Reed' AND email LIKE 'doris.reed@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="K58" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gloria' AND last_name LIKE 'Cook' AND email LIKE 'gloria.cook@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gloria' AND last_name LIKE 'Cook' AND email LIKE 'gloria.cook@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Evelyn' AND last_name LIKE 'Morgan' AND email LIKE 'evelyn.morgan@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Evelyn' AND last_name LIKE 'Morgan' AND email LIKE 'evelyn.morgan@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="K60" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jean' AND last_name LIKE 'Bell' AND email LIKE 'jean.bell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jean' AND last_name LIKE 'Bell' AND email LIKE 'jean.bell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Cheryl' AND last_name LIKE 'Murphy' AND email LIKE 'cheryl.murphy@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Cheryl' AND last_name LIKE 'Murphy' AND email LIKE 'cheryl.murphy@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="K62" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Mildred' AND last_name LIKE 'Bailey' AND email LIKE 'mildred.bailey@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Mildred' AND last_name LIKE 'Bailey' AND email LIKE 'mildred.bailey@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="K63" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Katherine' AND last_name LIKE 'Rivera' AND email LIKE 'katherine.rivera@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Katherine' AND last_name LIKE 'Rivera' AND email LIKE 'katherine.rivera@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="K64" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Joan' AND last_name LIKE 'Cooper' AND email LIKE 'joan.cooper@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Joan' AND last_name LIKE 'Cooper' AND email LIKE 'joan.cooper@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="K65" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ashley' AND last_name LIKE 'Richardson' AND email LIKE 'ashley.richardson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ashley' AND last_name LIKE 'Richardson' AND email LIKE 'ashley.richardson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="K66" t="str">
         <f t="shared" si="0"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Judith' AND last_name LIKE 'Cox' AND email LIKE 'judith.cox@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Judith' AND last_name LIKE 'Cox' AND email LIKE 'judith.cox@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8097,8 +8097,8 @@
         <v>1</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K130" si="1">CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C67,"' AND last_name LIKE '",$D67,"' AND email LIKE '",$E67,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rose' AND last_name LIKE 'Howard' AND email LIKE 'rose.howard@sakilacustomer.org' FROM customer</v>
+        <f t="shared" ref="K67:K130" si="1">CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C67,"' AND last_name LIKE '",$D67,"' AND email LIKE '",$E67,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rose' AND last_name LIKE 'Howard' AND email LIKE 'rose.howard@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="K68" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Janice' AND last_name LIKE 'Ward' AND email LIKE 'janice.ward@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Janice' AND last_name LIKE 'Ward' AND email LIKE 'janice.ward@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="K69" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kelly' AND last_name LIKE 'Torres' AND email LIKE 'kelly.torres@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kelly' AND last_name LIKE 'Torres' AND email LIKE 'kelly.torres@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="K70" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Nicole' AND last_name LIKE 'Peterson' AND email LIKE 'nicole.peterson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Nicole' AND last_name LIKE 'Peterson' AND email LIKE 'nicole.peterson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="K71" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Judy' AND last_name LIKE 'Gray' AND email LIKE 'judy.gray@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Judy' AND last_name LIKE 'Gray' AND email LIKE 'judy.gray@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="K72" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Christina' AND last_name LIKE 'Ramirez' AND email LIKE 'christina.ramirez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Christina' AND last_name LIKE 'Ramirez' AND email LIKE 'christina.ramirez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="K73" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kathy' AND last_name LIKE 'James' AND email LIKE 'kathy.james@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kathy' AND last_name LIKE 'James' AND email LIKE 'kathy.james@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="K74" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Theresa' AND last_name LIKE 'Watson' AND email LIKE 'theresa.watson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Theresa' AND last_name LIKE 'Watson' AND email LIKE 'theresa.watson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="K75" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Beverly' AND last_name LIKE 'Brooks' AND email LIKE 'beverly.brooks@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Beverly' AND last_name LIKE 'Brooks' AND email LIKE 'beverly.brooks@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="K76" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Denise' AND last_name LIKE 'Kelly' AND email LIKE 'denise.kelly@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Denise' AND last_name LIKE 'Kelly' AND email LIKE 'denise.kelly@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="K77" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tammy' AND last_name LIKE 'Sanders' AND email LIKE 'tammy.sanders@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tammy' AND last_name LIKE 'Sanders' AND email LIKE 'tammy.sanders@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="K78" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Irene' AND last_name LIKE 'Price' AND email LIKE 'irene.price@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Irene' AND last_name LIKE 'Price' AND email LIKE 'irene.price@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="K79" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jane' AND last_name LIKE 'Bennett' AND email LIKE 'jane.bennett@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jane' AND last_name LIKE 'Bennett' AND email LIKE 'jane.bennett@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="K80" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lori' AND last_name LIKE 'Wood' AND email LIKE 'lori.wood@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lori' AND last_name LIKE 'Wood' AND email LIKE 'lori.wood@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="K81" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rachel' AND last_name LIKE 'Barnes' AND email LIKE 'rachel.barnes@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rachel' AND last_name LIKE 'Barnes' AND email LIKE 'rachel.barnes@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="K82" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marilyn' AND last_name LIKE 'Ross' AND email LIKE 'marilyn.ross@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marilyn' AND last_name LIKE 'Ross' AND email LIKE 'marilyn.ross@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="K83" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Andrea' AND last_name LIKE 'Henderson' AND email LIKE 'andrea.henderson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Andrea' AND last_name LIKE 'Henderson' AND email LIKE 'andrea.henderson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="K84" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kathryn' AND last_name LIKE 'Coleman' AND email LIKE 'kathryn.coleman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kathryn' AND last_name LIKE 'Coleman' AND email LIKE 'kathryn.coleman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="K85" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Louise' AND last_name LIKE 'Jenkins' AND email LIKE 'louise.jenkins@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Louise' AND last_name LIKE 'Jenkins' AND email LIKE 'louise.jenkins@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="K86" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sara' AND last_name LIKE 'Perry' AND email LIKE 'sara.perry@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sara' AND last_name LIKE 'Perry' AND email LIKE 'sara.perry@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -8818,7 +8818,7 @@
       </c>
       <c r="K87" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Anne' AND last_name LIKE 'Powell' AND email LIKE 'anne.powell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Anne' AND last_name LIKE 'Powell' AND email LIKE 'anne.powell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -8854,7 +8854,7 @@
       </c>
       <c r="K88" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jacqueline' AND last_name LIKE 'Long' AND email LIKE 'jacqueline.long@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jacqueline' AND last_name LIKE 'Long' AND email LIKE 'jacqueline.long@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="K89" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Wanda' AND last_name LIKE 'Patterson' AND email LIKE 'wanda.patterson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Wanda' AND last_name LIKE 'Patterson' AND email LIKE 'wanda.patterson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="K90" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bonnie' AND last_name LIKE 'Hughes' AND email LIKE 'bonnie.hughes@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bonnie' AND last_name LIKE 'Hughes' AND email LIKE 'bonnie.hughes@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="K91" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Julia' AND last_name LIKE 'Flores' AND email LIKE 'julia.flores@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Julia' AND last_name LIKE 'Flores' AND email LIKE 'julia.flores@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="K92" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ruby' AND last_name LIKE 'Washington' AND email LIKE 'ruby.washington@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ruby' AND last_name LIKE 'Washington' AND email LIKE 'ruby.washington@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="K93" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lois' AND last_name LIKE 'Butler' AND email LIKE 'lois.butler@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lois' AND last_name LIKE 'Butler' AND email LIKE 'lois.butler@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -9070,7 +9070,7 @@
       </c>
       <c r="K94" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tina' AND last_name LIKE 'Simmons' AND email LIKE 'tina.simmons@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tina' AND last_name LIKE 'Simmons' AND email LIKE 'tina.simmons@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="K95" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Phyllis' AND last_name LIKE 'Foster' AND email LIKE 'phyllis.foster@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Phyllis' AND last_name LIKE 'Foster' AND email LIKE 'phyllis.foster@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="K96" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Norma' AND last_name LIKE 'Gonzales' AND email LIKE 'norma.gonzales@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Norma' AND last_name LIKE 'Gonzales' AND email LIKE 'norma.gonzales@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="K97" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Paula' AND last_name LIKE 'Bryant' AND email LIKE 'paula.bryant@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Paula' AND last_name LIKE 'Bryant' AND email LIKE 'paula.bryant@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -9214,7 +9214,7 @@
       </c>
       <c r="K98" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Diana' AND last_name LIKE 'Alexander' AND email LIKE 'diana.alexander@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Diana' AND last_name LIKE 'Alexander' AND email LIKE 'diana.alexander@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="K99" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Annie' AND last_name LIKE 'Russell' AND email LIKE 'annie.russell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Annie' AND last_name LIKE 'Russell' AND email LIKE 'annie.russell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="K100" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lillian' AND last_name LIKE 'Griffin' AND email LIKE 'lillian.griffin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lillian' AND last_name LIKE 'Griffin' AND email LIKE 'lillian.griffin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -9322,7 +9322,7 @@
       </c>
       <c r="K101" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Emily' AND last_name LIKE 'Diaz' AND email LIKE 'emily.diaz@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Emily' AND last_name LIKE 'Diaz' AND email LIKE 'emily.diaz@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="K102" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Robin' AND last_name LIKE 'Hayes' AND email LIKE 'robin.hayes@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Robin' AND last_name LIKE 'Hayes' AND email LIKE 'robin.hayes@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="K103" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Peggy' AND last_name LIKE 'Myers' AND email LIKE 'peggy.myers@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Peggy' AND last_name LIKE 'Myers' AND email LIKE 'peggy.myers@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="K104" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Crystal' AND last_name LIKE 'Ford' AND email LIKE 'crystal.ford@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Crystal' AND last_name LIKE 'Ford' AND email LIKE 'crystal.ford@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="K105" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gladys' AND last_name LIKE 'Hamilton' AND email LIKE 'gladys.hamilton@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gladys' AND last_name LIKE 'Hamilton' AND email LIKE 'gladys.hamilton@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -9502,7 +9502,7 @@
       </c>
       <c r="K106" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rita' AND last_name LIKE 'Graham' AND email LIKE 'rita.graham@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rita' AND last_name LIKE 'Graham' AND email LIKE 'rita.graham@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="K107" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dawn' AND last_name LIKE 'Sullivan' AND email LIKE 'dawn.sullivan@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dawn' AND last_name LIKE 'Sullivan' AND email LIKE 'dawn.sullivan@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="K108" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Connie' AND last_name LIKE 'Wallace' AND email LIKE 'connie.wallace@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Connie' AND last_name LIKE 'Wallace' AND email LIKE 'connie.wallace@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="K109" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Florence' AND last_name LIKE 'Woods' AND email LIKE 'florence.woods@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Florence' AND last_name LIKE 'Woods' AND email LIKE 'florence.woods@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="K110" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tracy' AND last_name LIKE 'Cole' AND email LIKE 'tracy.cole@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tracy' AND last_name LIKE 'Cole' AND email LIKE 'tracy.cole@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="K111" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Edna' AND last_name LIKE 'West' AND email LIKE 'edna.west@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Edna' AND last_name LIKE 'West' AND email LIKE 'edna.west@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -9718,7 +9718,7 @@
       </c>
       <c r="K112" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tiffany' AND last_name LIKE 'Jordan' AND email LIKE 'tiffany.jordan@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tiffany' AND last_name LIKE 'Jordan' AND email LIKE 'tiffany.jordan@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="K113" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Carmen' AND last_name LIKE 'Owens' AND email LIKE 'carmen.owens@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Carmen' AND last_name LIKE 'Owens' AND email LIKE 'carmen.owens@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -9790,7 +9790,7 @@
       </c>
       <c r="K114" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rosa' AND last_name LIKE 'Reynolds' AND email LIKE 'rosa.reynolds@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rosa' AND last_name LIKE 'Reynolds' AND email LIKE 'rosa.reynolds@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="K115" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Cindy' AND last_name LIKE 'Fisher' AND email LIKE 'cindy.fisher@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Cindy' AND last_name LIKE 'Fisher' AND email LIKE 'cindy.fisher@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -9862,7 +9862,7 @@
       </c>
       <c r="K116" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Grace' AND last_name LIKE 'Ellis' AND email LIKE 'grace.ellis@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Grace' AND last_name LIKE 'Ellis' AND email LIKE 'grace.ellis@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="K117" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Wendy' AND last_name LIKE 'Harrison' AND email LIKE 'wendy.harrison@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Wendy' AND last_name LIKE 'Harrison' AND email LIKE 'wendy.harrison@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -9934,7 +9934,7 @@
       </c>
       <c r="K118" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Victoria' AND last_name LIKE 'Gibson' AND email LIKE 'victoria.gibson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Victoria' AND last_name LIKE 'Gibson' AND email LIKE 'victoria.gibson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="K119" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Edith' AND last_name LIKE 'Mcdonald' AND email LIKE 'edith.mcdonald@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Edith' AND last_name LIKE 'Mcdonald' AND email LIKE 'edith.mcdonald@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="K120" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kim' AND last_name LIKE 'Cruz' AND email LIKE 'kim.cruz@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kim' AND last_name LIKE 'Cruz' AND email LIKE 'kim.cruz@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -10042,7 +10042,7 @@
       </c>
       <c r="K121" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sherry' AND last_name LIKE 'Marshall' AND email LIKE 'sherry.marshall@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sherry' AND last_name LIKE 'Marshall' AND email LIKE 'sherry.marshall@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -10078,7 +10078,7 @@
       </c>
       <c r="K122" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sylvia' AND last_name LIKE 'Ortiz' AND email LIKE 'sylvia.ortiz@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sylvia' AND last_name LIKE 'Ortiz' AND email LIKE 'sylvia.ortiz@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="K123" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Josephine' AND last_name LIKE 'Gomez' AND email LIKE 'josephine.gomez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Josephine' AND last_name LIKE 'Gomez' AND email LIKE 'josephine.gomez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="K124" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Thelma' AND last_name LIKE 'Murray' AND email LIKE 'thelma.murray@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Thelma' AND last_name LIKE 'Murray' AND email LIKE 'thelma.murray@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="K125" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Shannon' AND last_name LIKE 'Freeman' AND email LIKE 'shannon.freeman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Shannon' AND last_name LIKE 'Freeman' AND email LIKE 'shannon.freeman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="K126" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sheila' AND last_name LIKE 'Wells' AND email LIKE 'sheila.wells@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sheila' AND last_name LIKE 'Wells' AND email LIKE 'sheila.wells@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="K127" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ethel' AND last_name LIKE 'Webb' AND email LIKE 'ethel.webb@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ethel' AND last_name LIKE 'Webb' AND email LIKE 'ethel.webb@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="K128" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ellen' AND last_name LIKE 'Simpson' AND email LIKE 'ellen.simpson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ellen' AND last_name LIKE 'Simpson' AND email LIKE 'ellen.simpson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -10330,7 +10330,7 @@
       </c>
       <c r="K129" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Elaine' AND last_name LIKE 'Stevens' AND email LIKE 'elaine.stevens@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Elaine' AND last_name LIKE 'Stevens' AND email LIKE 'elaine.stevens@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="K130" t="str">
         <f t="shared" si="1"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marjorie' AND last_name LIKE 'Tucker' AND email LIKE 'marjorie.tucker@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marjorie' AND last_name LIKE 'Tucker' AND email LIKE 'marjorie.tucker@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -10401,8 +10401,8 @@
         <v>1</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" ref="K131:K194" si="2">CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C131,"' AND last_name LIKE '",$D131,"' AND email LIKE '",$E131,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Carrie' AND last_name LIKE 'Porter' AND email LIKE 'carrie.porter@sakilacustomer.org' FROM customer</v>
+        <f t="shared" ref="K131:K194" si="2">CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C131,"' AND last_name LIKE '",$D131,"' AND email LIKE '",$E131,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Carrie' AND last_name LIKE 'Porter' AND email LIKE 'carrie.porter@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="K132" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Charlotte' AND last_name LIKE 'Hunter' AND email LIKE 'charlotte.hunter@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Charlotte' AND last_name LIKE 'Hunter' AND email LIKE 'charlotte.hunter@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="K133" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Monica' AND last_name LIKE 'Hicks' AND email LIKE 'monica.hicks@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Monica' AND last_name LIKE 'Hicks' AND email LIKE 'monica.hicks@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="K134" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Esther' AND last_name LIKE 'Crawford' AND email LIKE 'esther.crawford@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Esther' AND last_name LIKE 'Crawford' AND email LIKE 'esther.crawford@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="K135" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Pauline' AND last_name LIKE 'Henry' AND email LIKE 'pauline.henry@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Pauline' AND last_name LIKE 'Henry' AND email LIKE 'pauline.henry@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="K136" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Emma' AND last_name LIKE 'Boyd' AND email LIKE 'emma.boyd@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Emma' AND last_name LIKE 'Boyd' AND email LIKE 'emma.boyd@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="K137" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Juanita' AND last_name LIKE 'Mason' AND email LIKE 'juanita.mason@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Juanita' AND last_name LIKE 'Mason' AND email LIKE 'juanita.mason@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -10654,7 +10654,7 @@
       </c>
       <c r="K138" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Anita' AND last_name LIKE 'Morales' AND email LIKE 'anita.morales@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Anita' AND last_name LIKE 'Morales' AND email LIKE 'anita.morales@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -10690,7 +10690,7 @@
       </c>
       <c r="K139" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rhonda' AND last_name LIKE 'Kennedy' AND email LIKE 'rhonda.kennedy@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rhonda' AND last_name LIKE 'Kennedy' AND email LIKE 'rhonda.kennedy@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="K140" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Hazel' AND last_name LIKE 'Warren' AND email LIKE 'hazel.warren@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Hazel' AND last_name LIKE 'Warren' AND email LIKE 'hazel.warren@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -10762,7 +10762,7 @@
       </c>
       <c r="K141" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Amber' AND last_name LIKE 'Dixon' AND email LIKE 'amber.dixon@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Amber' AND last_name LIKE 'Dixon' AND email LIKE 'amber.dixon@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="K142" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Eva' AND last_name LIKE 'Ramos' AND email LIKE 'eva.ramos@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Eva' AND last_name LIKE 'Ramos' AND email LIKE 'eva.ramos@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="K143" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Debbie' AND last_name LIKE 'Reyes' AND email LIKE 'debbie.reyes@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Debbie' AND last_name LIKE 'Reyes' AND email LIKE 'debbie.reyes@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="K144" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'April' AND last_name LIKE 'Burns' AND email LIKE 'april.burns@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'April' AND last_name LIKE 'Burns' AND email LIKE 'april.burns@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="K145" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Leslie' AND last_name LIKE 'Gordon' AND email LIKE 'leslie.gordon@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Leslie' AND last_name LIKE 'Gordon' AND email LIKE 'leslie.gordon@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="K146" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Clara' AND last_name LIKE 'Shaw' AND email LIKE 'clara.shaw@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Clara' AND last_name LIKE 'Shaw' AND email LIKE 'clara.shaw@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="K147" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lucille' AND last_name LIKE 'Holmes' AND email LIKE 'lucille.holmes@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lucille' AND last_name LIKE 'Holmes' AND email LIKE 'lucille.holmes@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -11014,7 +11014,7 @@
       </c>
       <c r="K148" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jamie' AND last_name LIKE 'Rice' AND email LIKE 'jamie.rice@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jamie' AND last_name LIKE 'Rice' AND email LIKE 'jamie.rice@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -11050,7 +11050,7 @@
       </c>
       <c r="K149" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Joanne' AND last_name LIKE 'Robertson' AND email LIKE 'joanne.robertson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Joanne' AND last_name LIKE 'Robertson' AND email LIKE 'joanne.robertson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -11086,7 +11086,7 @@
       </c>
       <c r="K150" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Eleanor' AND last_name LIKE 'Hunt' AND email LIKE 'eleanor.hunt@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Eleanor' AND last_name LIKE 'Hunt' AND email LIKE 'eleanor.hunt@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -11122,7 +11122,7 @@
       </c>
       <c r="K151" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Valerie' AND last_name LIKE 'Black' AND email LIKE 'valerie.black@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Valerie' AND last_name LIKE 'Black' AND email LIKE 'valerie.black@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="K152" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Danielle' AND last_name LIKE 'Daniels' AND email LIKE 'danielle.daniels@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Danielle' AND last_name LIKE 'Daniels' AND email LIKE 'danielle.daniels@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="K153" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Megan' AND last_name LIKE 'Palmer' AND email LIKE 'megan.palmer@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Megan' AND last_name LIKE 'Palmer' AND email LIKE 'megan.palmer@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="K154" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Alicia' AND last_name LIKE 'Mills' AND email LIKE 'alicia.mills@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Alicia' AND last_name LIKE 'Mills' AND email LIKE 'alicia.mills@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -11266,7 +11266,7 @@
       </c>
       <c r="K155" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Suzanne' AND last_name LIKE 'Nichols' AND email LIKE 'suzanne.nichols@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Suzanne' AND last_name LIKE 'Nichols' AND email LIKE 'suzanne.nichols@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="K156" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Michele' AND last_name LIKE 'Grant' AND email LIKE 'michele.grant@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Michele' AND last_name LIKE 'Grant' AND email LIKE 'michele.grant@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -11338,7 +11338,7 @@
       </c>
       <c r="K157" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gail' AND last_name LIKE 'Knight' AND email LIKE 'gail.knight@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gail' AND last_name LIKE 'Knight' AND email LIKE 'gail.knight@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="K158" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bertha' AND last_name LIKE 'Ferguson' AND email LIKE 'bertha.ferguson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bertha' AND last_name LIKE 'Ferguson' AND email LIKE 'bertha.ferguson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="K159" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Darlene' AND last_name LIKE 'Rose' AND email LIKE 'darlene.rose@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Darlene' AND last_name LIKE 'Rose' AND email LIKE 'darlene.rose@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="K160" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Veronica' AND last_name LIKE 'Stone' AND email LIKE 'veronica.stone@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Veronica' AND last_name LIKE 'Stone' AND email LIKE 'veronica.stone@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="K161" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jill' AND last_name LIKE 'Hawkins' AND email LIKE 'jill.hawkins@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jill' AND last_name LIKE 'Hawkins' AND email LIKE 'jill.hawkins@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="K162" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Erin' AND last_name LIKE 'Dunn' AND email LIKE 'erin.dunn@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Erin' AND last_name LIKE 'Dunn' AND email LIKE 'erin.dunn@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -11554,7 +11554,7 @@
       </c>
       <c r="K163" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Geraldine' AND last_name LIKE 'Perkins' AND email LIKE 'geraldine.perkins@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Geraldine' AND last_name LIKE 'Perkins' AND email LIKE 'geraldine.perkins@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="K164" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lauren' AND last_name LIKE 'Hudson' AND email LIKE 'lauren.hudson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lauren' AND last_name LIKE 'Hudson' AND email LIKE 'lauren.hudson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="K165" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Cathy' AND last_name LIKE 'Spencer' AND email LIKE 'cathy.spencer@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Cathy' AND last_name LIKE 'Spencer' AND email LIKE 'cathy.spencer@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="K166" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Joann' AND last_name LIKE 'Gardner' AND email LIKE 'joann.gardner@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Joann' AND last_name LIKE 'Gardner' AND email LIKE 'joann.gardner@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="K167" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lorraine' AND last_name LIKE 'Stephens' AND email LIKE 'lorraine.stephens@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lorraine' AND last_name LIKE 'Stephens' AND email LIKE 'lorraine.stephens@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="K168" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lynn' AND last_name LIKE 'Payne' AND email LIKE 'lynn.payne@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lynn' AND last_name LIKE 'Payne' AND email LIKE 'lynn.payne@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -11770,7 +11770,7 @@
       </c>
       <c r="K169" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sally' AND last_name LIKE 'Pierce' AND email LIKE 'sally.pierce@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sally' AND last_name LIKE 'Pierce' AND email LIKE 'sally.pierce@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="K170" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Regina' AND last_name LIKE 'Berry' AND email LIKE 'regina.berry@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Regina' AND last_name LIKE 'Berry' AND email LIKE 'regina.berry@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="K171" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Erica' AND last_name LIKE 'Matthews' AND email LIKE 'erica.matthews@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Erica' AND last_name LIKE 'Matthews' AND email LIKE 'erica.matthews@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="K172" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Beatrice' AND last_name LIKE 'Arnold' AND email LIKE 'beatrice.arnold@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Beatrice' AND last_name LIKE 'Arnold' AND email LIKE 'beatrice.arnold@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -11914,7 +11914,7 @@
       </c>
       <c r="K173" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dolores' AND last_name LIKE 'Wagner' AND email LIKE 'dolores.wagner@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dolores' AND last_name LIKE 'Wagner' AND email LIKE 'dolores.wagner@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="K174" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bernice' AND last_name LIKE 'Willis' AND email LIKE 'bernice.willis@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bernice' AND last_name LIKE 'Willis' AND email LIKE 'bernice.willis@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="K175" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Audrey' AND last_name LIKE 'Ray' AND email LIKE 'audrey.ray@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Audrey' AND last_name LIKE 'Ray' AND email LIKE 'audrey.ray@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="K176" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Yvonne' AND last_name LIKE 'Watkins' AND email LIKE 'yvonne.watkins@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Yvonne' AND last_name LIKE 'Watkins' AND email LIKE 'yvonne.watkins@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="K177" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Annette' AND last_name LIKE 'Olson' AND email LIKE 'annette.olson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Annette' AND last_name LIKE 'Olson' AND email LIKE 'annette.olson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="K178" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'June' AND last_name LIKE 'Carroll' AND email LIKE 'june.carroll@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'June' AND last_name LIKE 'Carroll' AND email LIKE 'june.carroll@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="K179" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Samantha' AND last_name LIKE 'Duncan' AND email LIKE 'samantha.duncan@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Samantha' AND last_name LIKE 'Duncan' AND email LIKE 'samantha.duncan@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="K180" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marion' AND last_name LIKE 'Snyder' AND email LIKE 'marion.snyder@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marion' AND last_name LIKE 'Snyder' AND email LIKE 'marion.snyder@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="K181" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dana' AND last_name LIKE 'Hart' AND email LIKE 'dana.hart@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dana' AND last_name LIKE 'Hart' AND email LIKE 'dana.hart@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -12238,7 +12238,7 @@
       </c>
       <c r="K182" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Stacy' AND last_name LIKE 'Cunningham' AND email LIKE 'stacy.cunningham@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Stacy' AND last_name LIKE 'Cunningham' AND email LIKE 'stacy.cunningham@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="K183" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ana' AND last_name LIKE 'Bradley' AND email LIKE 'ana.bradley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ana' AND last_name LIKE 'Bradley' AND email LIKE 'ana.bradley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="K184" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Renee' AND last_name LIKE 'Lane' AND email LIKE 'renee.lane@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Renee' AND last_name LIKE 'Lane' AND email LIKE 'renee.lane@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -12346,7 +12346,7 @@
       </c>
       <c r="K185" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ida' AND last_name LIKE 'Andrews' AND email LIKE 'ida.andrews@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ida' AND last_name LIKE 'Andrews' AND email LIKE 'ida.andrews@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -12382,7 +12382,7 @@
       </c>
       <c r="K186" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Vivian' AND last_name LIKE 'Ruiz' AND email LIKE 'vivian.ruiz@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Vivian' AND last_name LIKE 'Ruiz' AND email LIKE 'vivian.ruiz@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="K187" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Roberta' AND last_name LIKE 'Harper' AND email LIKE 'roberta.harper@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Roberta' AND last_name LIKE 'Harper' AND email LIKE 'roberta.harper@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="K188" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Holly' AND last_name LIKE 'Fox' AND email LIKE 'holly.fox@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Holly' AND last_name LIKE 'Fox' AND email LIKE 'holly.fox@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="K189" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Brittany' AND last_name LIKE 'Riley' AND email LIKE 'brittany.riley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Brittany' AND last_name LIKE 'Riley' AND email LIKE 'brittany.riley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="K190" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Melanie' AND last_name LIKE 'Armstrong' AND email LIKE 'melanie.armstrong@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Melanie' AND last_name LIKE 'Armstrong' AND email LIKE 'melanie.armstrong@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -12562,7 +12562,7 @@
       </c>
       <c r="K191" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Loretta' AND last_name LIKE 'Carpenter' AND email LIKE 'loretta.carpenter@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Loretta' AND last_name LIKE 'Carpenter' AND email LIKE 'loretta.carpenter@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="K192" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Yolanda' AND last_name LIKE 'Weaver' AND email LIKE 'yolanda.weaver@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Yolanda' AND last_name LIKE 'Weaver' AND email LIKE 'yolanda.weaver@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -12634,7 +12634,7 @@
       </c>
       <c r="K193" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jeanette' AND last_name LIKE 'Greene' AND email LIKE 'jeanette.greene@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jeanette' AND last_name LIKE 'Greene' AND email LIKE 'jeanette.greene@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="K194" t="str">
         <f t="shared" si="2"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Laurie' AND last_name LIKE 'Lawrence' AND email LIKE 'laurie.lawrence@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Laurie' AND last_name LIKE 'Lawrence' AND email LIKE 'laurie.lawrence@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -12705,8 +12705,8 @@
         <v>1</v>
       </c>
       <c r="K195" t="str">
-        <f t="shared" ref="K195:K258" si="3">CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C195,"' AND last_name LIKE '",$D195,"' AND email LIKE '",$E195,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Katie' AND last_name LIKE 'Elliott' AND email LIKE 'katie.elliott@sakilacustomer.org' FROM customer</v>
+        <f t="shared" ref="K195:K258" si="3">CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C195,"' AND last_name LIKE '",$D195,"' AND email LIKE '",$E195,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Katie' AND last_name LIKE 'Elliott' AND email LIKE 'katie.elliott@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -12742,7 +12742,7 @@
       </c>
       <c r="K196" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kristen' AND last_name LIKE 'Chavez' AND email LIKE 'kristen.chavez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kristen' AND last_name LIKE 'Chavez' AND email LIKE 'kristen.chavez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="K197" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Vanessa' AND last_name LIKE 'Sims' AND email LIKE 'vanessa.sims@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Vanessa' AND last_name LIKE 'Sims' AND email LIKE 'vanessa.sims@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -12814,7 +12814,7 @@
       </c>
       <c r="K198" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Alma' AND last_name LIKE 'Austin' AND email LIKE 'alma.austin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Alma' AND last_name LIKE 'Austin' AND email LIKE 'alma.austin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -12850,7 +12850,7 @@
       </c>
       <c r="K199" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sue' AND last_name LIKE 'Peters' AND email LIKE 'sue.peters@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sue' AND last_name LIKE 'Peters' AND email LIKE 'sue.peters@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="K200" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Elsie' AND last_name LIKE 'Kelley' AND email LIKE 'elsie.kelley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Elsie' AND last_name LIKE 'Kelley' AND email LIKE 'elsie.kelley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -12922,7 +12922,7 @@
       </c>
       <c r="K201" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Beth' AND last_name LIKE 'Franklin' AND email LIKE 'beth.franklin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Beth' AND last_name LIKE 'Franklin' AND email LIKE 'beth.franklin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="K202" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jeanne' AND last_name LIKE 'Lawson' AND email LIKE 'jeanne.lawson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jeanne' AND last_name LIKE 'Lawson' AND email LIKE 'jeanne.lawson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -12994,7 +12994,7 @@
       </c>
       <c r="K203" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Vicki' AND last_name LIKE 'Fields' AND email LIKE 'vicki.fields@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Vicki' AND last_name LIKE 'Fields' AND email LIKE 'vicki.fields@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="K204" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Carla' AND last_name LIKE 'Gutierrez' AND email LIKE 'carla.gutierrez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Carla' AND last_name LIKE 'Gutierrez' AND email LIKE 'carla.gutierrez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -13066,7 +13066,7 @@
       </c>
       <c r="K205" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tara' AND last_name LIKE 'Ryan' AND email LIKE 'tara.ryan@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tara' AND last_name LIKE 'Ryan' AND email LIKE 'tara.ryan@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="K206" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rosemary' AND last_name LIKE 'Schmidt' AND email LIKE 'rosemary.schmidt@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rosemary' AND last_name LIKE 'Schmidt' AND email LIKE 'rosemary.schmidt@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -13138,7 +13138,7 @@
       </c>
       <c r="K207" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Eileen' AND last_name LIKE 'Carr' AND email LIKE 'eileen.carr@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Eileen' AND last_name LIKE 'Carr' AND email LIKE 'eileen.carr@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -13174,7 +13174,7 @@
       </c>
       <c r="K208" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Terri' AND last_name LIKE 'Vasquez' AND email LIKE 'terri.vasquez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Terri' AND last_name LIKE 'Vasquez' AND email LIKE 'terri.vasquez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -13210,7 +13210,7 @@
       </c>
       <c r="K209" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gertrude' AND last_name LIKE 'Castillo' AND email LIKE 'gertrude.castillo@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gertrude' AND last_name LIKE 'Castillo' AND email LIKE 'gertrude.castillo@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="K210" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lucy' AND last_name LIKE 'Wheeler' AND email LIKE 'lucy.wheeler@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lucy' AND last_name LIKE 'Wheeler' AND email LIKE 'lucy.wheeler@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -13282,7 +13282,7 @@
       </c>
       <c r="K211" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tonya' AND last_name LIKE 'Chapman' AND email LIKE 'tonya.chapman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tonya' AND last_name LIKE 'Chapman' AND email LIKE 'tonya.chapman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="K212" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ella' AND last_name LIKE 'Oliver' AND email LIKE 'ella.oliver@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ella' AND last_name LIKE 'Oliver' AND email LIKE 'ella.oliver@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="K213" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Stacey' AND last_name LIKE 'Montgomery' AND email LIKE 'stacey.montgomery@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Stacey' AND last_name LIKE 'Montgomery' AND email LIKE 'stacey.montgomery@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -13390,7 +13390,7 @@
       </c>
       <c r="K214" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Wilma' AND last_name LIKE 'Richards' AND email LIKE 'wilma.richards@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Wilma' AND last_name LIKE 'Richards' AND email LIKE 'wilma.richards@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -13426,7 +13426,7 @@
       </c>
       <c r="K215" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gina' AND last_name LIKE 'Williamson' AND email LIKE 'gina.williamson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gina' AND last_name LIKE 'Williamson' AND email LIKE 'gina.williamson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="K216" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kristin' AND last_name LIKE 'Johnston' AND email LIKE 'kristin.johnston@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kristin' AND last_name LIKE 'Johnston' AND email LIKE 'kristin.johnston@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="K217" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jessie' AND last_name LIKE 'Banks' AND email LIKE 'jessie.banks@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jessie' AND last_name LIKE 'Banks' AND email LIKE 'jessie.banks@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -13534,7 +13534,7 @@
       </c>
       <c r="K218" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Natalie' AND last_name LIKE 'Meyer' AND email LIKE 'natalie.meyer@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Natalie' AND last_name LIKE 'Meyer' AND email LIKE 'natalie.meyer@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="K219" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Agnes' AND last_name LIKE 'Bishop' AND email LIKE 'agnes.bishop@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Agnes' AND last_name LIKE 'Bishop' AND email LIKE 'agnes.bishop@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -13606,7 +13606,7 @@
       </c>
       <c r="K220" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Vera' AND last_name LIKE 'Mccoy' AND email LIKE 'vera.mccoy@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Vera' AND last_name LIKE 'Mccoy' AND email LIKE 'vera.mccoy@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="K221" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Willie' AND last_name LIKE 'Howell' AND email LIKE 'willie.howell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Willie' AND last_name LIKE 'Howell' AND email LIKE 'willie.howell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="K222" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Charlene' AND last_name LIKE 'Alvarez' AND email LIKE 'charlene.alvarez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Charlene' AND last_name LIKE 'Alvarez' AND email LIKE 'charlene.alvarez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -13714,7 +13714,7 @@
       </c>
       <c r="K223" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bessie' AND last_name LIKE 'Morrison' AND email LIKE 'bessie.morrison@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bessie' AND last_name LIKE 'Morrison' AND email LIKE 'bessie.morrison@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -13750,7 +13750,7 @@
       </c>
       <c r="K224" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Delores' AND last_name LIKE 'Hansen' AND email LIKE 'delores.hansen@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Delores' AND last_name LIKE 'Hansen' AND email LIKE 'delores.hansen@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -13786,7 +13786,7 @@
       </c>
       <c r="K225" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Melinda' AND last_name LIKE 'Fernandez' AND email LIKE 'melinda.fernandez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Melinda' AND last_name LIKE 'Fernandez' AND email LIKE 'melinda.fernandez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="K226" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Pearl' AND last_name LIKE 'Garza' AND email LIKE 'pearl.garza@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Pearl' AND last_name LIKE 'Garza' AND email LIKE 'pearl.garza@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="K227" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Arlene' AND last_name LIKE 'Harvey' AND email LIKE 'arlene.harvey@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Arlene' AND last_name LIKE 'Harvey' AND email LIKE 'arlene.harvey@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -13894,7 +13894,7 @@
       </c>
       <c r="K228" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Maureen' AND last_name LIKE 'Little' AND email LIKE 'maureen.little@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Maureen' AND last_name LIKE 'Little' AND email LIKE 'maureen.little@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -13930,7 +13930,7 @@
       </c>
       <c r="K229" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Colleen' AND last_name LIKE 'Burton' AND email LIKE 'colleen.burton@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Colleen' AND last_name LIKE 'Burton' AND email LIKE 'colleen.burton@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="K230" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Allison' AND last_name LIKE 'Stanley' AND email LIKE 'allison.stanley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Allison' AND last_name LIKE 'Stanley' AND email LIKE 'allison.stanley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -14002,7 +14002,7 @@
       </c>
       <c r="K231" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tamara' AND last_name LIKE 'Nguyen' AND email LIKE 'tamara.nguyen@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tamara' AND last_name LIKE 'Nguyen' AND email LIKE 'tamara.nguyen@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -14038,7 +14038,7 @@
       </c>
       <c r="K232" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Joy' AND last_name LIKE 'George' AND email LIKE 'joy.george@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Joy' AND last_name LIKE 'George' AND email LIKE 'joy.george@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="K233" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Georgia' AND last_name LIKE 'Jacobs' AND email LIKE 'georgia.jacobs@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Georgia' AND last_name LIKE 'Jacobs' AND email LIKE 'georgia.jacobs@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="K234" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Constance' AND last_name LIKE 'Reid' AND email LIKE 'constance.reid@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Constance' AND last_name LIKE 'Reid' AND email LIKE 'constance.reid@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="K235" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lillie' AND last_name LIKE 'Kim' AND email LIKE 'lillie.kim@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lillie' AND last_name LIKE 'Kim' AND email LIKE 'lillie.kim@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -14182,7 +14182,7 @@
       </c>
       <c r="K236" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Claudia' AND last_name LIKE 'Fuller' AND email LIKE 'claudia.fuller@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Claudia' AND last_name LIKE 'Fuller' AND email LIKE 'claudia.fuller@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -14218,7 +14218,7 @@
       </c>
       <c r="K237" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jackie' AND last_name LIKE 'Lynch' AND email LIKE 'jackie.lynch@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jackie' AND last_name LIKE 'Lynch' AND email LIKE 'jackie.lynch@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="K238" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marcia' AND last_name LIKE 'Dean' AND email LIKE 'marcia.dean@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marcia' AND last_name LIKE 'Dean' AND email LIKE 'marcia.dean@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="K239" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tanya' AND last_name LIKE 'Gilbert' AND email LIKE 'tanya.gilbert@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tanya' AND last_name LIKE 'Gilbert' AND email LIKE 'tanya.gilbert@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -14326,7 +14326,7 @@
       </c>
       <c r="K240" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Nellie' AND last_name LIKE 'Garrett' AND email LIKE 'nellie.garrett@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Nellie' AND last_name LIKE 'Garrett' AND email LIKE 'nellie.garrett@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="K241" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Minnie' AND last_name LIKE 'Romero' AND email LIKE 'minnie.romero@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Minnie' AND last_name LIKE 'Romero' AND email LIKE 'minnie.romero@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -14398,7 +14398,7 @@
       </c>
       <c r="K242" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marlene' AND last_name LIKE 'Welch' AND email LIKE 'marlene.welch@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marlene' AND last_name LIKE 'Welch' AND email LIKE 'marlene.welch@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -14434,7 +14434,7 @@
       </c>
       <c r="K243" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Heidi' AND last_name LIKE 'Larson' AND email LIKE 'heidi.larson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Heidi' AND last_name LIKE 'Larson' AND email LIKE 'heidi.larson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -14470,7 +14470,7 @@
       </c>
       <c r="K244" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Glenda' AND last_name LIKE 'Frazier' AND email LIKE 'glenda.frazier@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Glenda' AND last_name LIKE 'Frazier' AND email LIKE 'glenda.frazier@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="K245" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lydia' AND last_name LIKE 'Burke' AND email LIKE 'lydia.burke@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lydia' AND last_name LIKE 'Burke' AND email LIKE 'lydia.burke@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -14542,7 +14542,7 @@
       </c>
       <c r="K246" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Viola' AND last_name LIKE 'Hanson' AND email LIKE 'viola.hanson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Viola' AND last_name LIKE 'Hanson' AND email LIKE 'viola.hanson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="K247" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Courtney' AND last_name LIKE 'Day' AND email LIKE 'courtney.day@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Courtney' AND last_name LIKE 'Day' AND email LIKE 'courtney.day@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -14614,7 +14614,7 @@
       </c>
       <c r="K248" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marian' AND last_name LIKE 'Mendoza' AND email LIKE 'marian.mendoza@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marian' AND last_name LIKE 'Mendoza' AND email LIKE 'marian.mendoza@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -14650,7 +14650,7 @@
       </c>
       <c r="K249" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Stella' AND last_name LIKE 'Moreno' AND email LIKE 'stella.moreno@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Stella' AND last_name LIKE 'Moreno' AND email LIKE 'stella.moreno@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -14686,7 +14686,7 @@
       </c>
       <c r="K250" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Caroline' AND last_name LIKE 'Bowman' AND email LIKE 'caroline.bowman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Caroline' AND last_name LIKE 'Bowman' AND email LIKE 'caroline.bowman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="K251" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dora' AND last_name LIKE 'Medina' AND email LIKE 'dora.medina@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dora' AND last_name LIKE 'Medina' AND email LIKE 'dora.medina@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -14758,7 +14758,7 @@
       </c>
       <c r="K252" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jo' AND last_name LIKE 'Fowler' AND email LIKE 'jo.fowler@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jo' AND last_name LIKE 'Fowler' AND email LIKE 'jo.fowler@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -14794,7 +14794,7 @@
       </c>
       <c r="K253" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Vickie' AND last_name LIKE 'Brewer' AND email LIKE 'vickie.brewer@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Vickie' AND last_name LIKE 'Brewer' AND email LIKE 'vickie.brewer@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -14830,7 +14830,7 @@
       </c>
       <c r="K254" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Mattie' AND last_name LIKE 'Hoffman' AND email LIKE 'mattie.hoffman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Mattie' AND last_name LIKE 'Hoffman' AND email LIKE 'mattie.hoffman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="K255" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Terry' AND last_name LIKE 'Carlson' AND email LIKE 'terry.carlson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Terry' AND last_name LIKE 'Carlson' AND email LIKE 'terry.carlson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="K256" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Maxine' AND last_name LIKE 'Silva' AND email LIKE 'maxine.silva@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Maxine' AND last_name LIKE 'Silva' AND email LIKE 'maxine.silva@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="K257" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Irma' AND last_name LIKE 'Pearson' AND email LIKE 'irma.pearson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Irma' AND last_name LIKE 'Pearson' AND email LIKE 'irma.pearson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -14974,7 +14974,7 @@
       </c>
       <c r="K258" t="str">
         <f t="shared" si="3"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Mabel' AND last_name LIKE 'Holland' AND email LIKE 'mabel.holland@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Mabel' AND last_name LIKE 'Holland' AND email LIKE 'mabel.holland@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -15009,8 +15009,8 @@
         <v>1</v>
       </c>
       <c r="K259" t="str">
-        <f t="shared" ref="K259:K322" si="4">CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C259,"' AND last_name LIKE '",$D259,"' AND email LIKE '",$E259,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marsha' AND last_name LIKE 'Douglas' AND email LIKE 'marsha.douglas@sakilacustomer.org' FROM customer</v>
+        <f t="shared" ref="K259:K322" si="4">CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C259,"' AND last_name LIKE '",$D259,"' AND email LIKE '",$E259,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marsha' AND last_name LIKE 'Douglas' AND email LIKE 'marsha.douglas@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -15046,7 +15046,7 @@
       </c>
       <c r="K260" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Myrtle' AND last_name LIKE 'Fleming' AND email LIKE 'myrtle.fleming@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Myrtle' AND last_name LIKE 'Fleming' AND email LIKE 'myrtle.fleming@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -15082,7 +15082,7 @@
       </c>
       <c r="K261" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lena' AND last_name LIKE 'Jensen' AND email LIKE 'lena.jensen@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lena' AND last_name LIKE 'Jensen' AND email LIKE 'lena.jensen@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -15118,7 +15118,7 @@
       </c>
       <c r="K262" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Christy' AND last_name LIKE 'Vargas' AND email LIKE 'christy.vargas@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Christy' AND last_name LIKE 'Vargas' AND email LIKE 'christy.vargas@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -15154,7 +15154,7 @@
       </c>
       <c r="K263" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Deanna' AND last_name LIKE 'Byrd' AND email LIKE 'deanna.byrd@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Deanna' AND last_name LIKE 'Byrd' AND email LIKE 'deanna.byrd@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -15190,7 +15190,7 @@
       </c>
       <c r="K264" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Patsy' AND last_name LIKE 'Davidson' AND email LIKE 'patsy.davidson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Patsy' AND last_name LIKE 'Davidson' AND email LIKE 'patsy.davidson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="K265" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Hilda' AND last_name LIKE 'Hopkins' AND email LIKE 'hilda.hopkins@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Hilda' AND last_name LIKE 'Hopkins' AND email LIKE 'hilda.hopkins@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="K266" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gwendolyn' AND last_name LIKE 'May' AND email LIKE 'gwendolyn.may@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gwendolyn' AND last_name LIKE 'May' AND email LIKE 'gwendolyn.may@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="K267" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jennie' AND last_name LIKE 'Terry' AND email LIKE 'jennie.terry@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jennie' AND last_name LIKE 'Terry' AND email LIKE 'jennie.terry@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -15334,7 +15334,7 @@
       </c>
       <c r="K268" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Nora' AND last_name LIKE 'Herrera' AND email LIKE 'nora.herrera@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Nora' AND last_name LIKE 'Herrera' AND email LIKE 'nora.herrera@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="K269" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Margie' AND last_name LIKE 'Wade' AND email LIKE 'margie.wade@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Margie' AND last_name LIKE 'Wade' AND email LIKE 'margie.wade@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -15406,7 +15406,7 @@
       </c>
       <c r="K270" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Nina' AND last_name LIKE 'Soto' AND email LIKE 'nina.soto@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Nina' AND last_name LIKE 'Soto' AND email LIKE 'nina.soto@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -15442,7 +15442,7 @@
       </c>
       <c r="K271" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Cassandra' AND last_name LIKE 'Walters' AND email LIKE 'cassandra.walters@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Cassandra' AND last_name LIKE 'Walters' AND email LIKE 'cassandra.walters@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="K272" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Leah' AND last_name LIKE 'Curtis' AND email LIKE 'leah.curtis@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Leah' AND last_name LIKE 'Curtis' AND email LIKE 'leah.curtis@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -15514,7 +15514,7 @@
       </c>
       <c r="K273" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Penny' AND last_name LIKE 'Neal' AND email LIKE 'penny.neal@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Penny' AND last_name LIKE 'Neal' AND email LIKE 'penny.neal@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -15550,7 +15550,7 @@
       </c>
       <c r="K274" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kay' AND last_name LIKE 'Caldwell' AND email LIKE 'kay.caldwell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kay' AND last_name LIKE 'Caldwell' AND email LIKE 'kay.caldwell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -15586,7 +15586,7 @@
       </c>
       <c r="K275" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Priscilla' AND last_name LIKE 'Lowe' AND email LIKE 'priscilla.lowe@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Priscilla' AND last_name LIKE 'Lowe' AND email LIKE 'priscilla.lowe@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="K276" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Naomi' AND last_name LIKE 'Jennings' AND email LIKE 'naomi.jennings@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Naomi' AND last_name LIKE 'Jennings' AND email LIKE 'naomi.jennings@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -15658,7 +15658,7 @@
       </c>
       <c r="K277" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Carole' AND last_name LIKE 'Barnett' AND email LIKE 'carole.barnett@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Carole' AND last_name LIKE 'Barnett' AND email LIKE 'carole.barnett@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -15694,7 +15694,7 @@
       </c>
       <c r="K278" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Brandy' AND last_name LIKE 'Graves' AND email LIKE 'brandy.graves@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Brandy' AND last_name LIKE 'Graves' AND email LIKE 'brandy.graves@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="K279" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Olga' AND last_name LIKE 'Jimenez' AND email LIKE 'olga.jimenez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Olga' AND last_name LIKE 'Jimenez' AND email LIKE 'olga.jimenez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="K280" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Billie' AND last_name LIKE 'Horton' AND email LIKE 'billie.horton@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Billie' AND last_name LIKE 'Horton' AND email LIKE 'billie.horton@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -15802,7 +15802,7 @@
       </c>
       <c r="K281" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dianne' AND last_name LIKE 'Shelton' AND email LIKE 'dianne.shelton@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dianne' AND last_name LIKE 'Shelton' AND email LIKE 'dianne.shelton@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="K282" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tracey' AND last_name LIKE 'Barrett' AND email LIKE 'tracey.barrett@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tracey' AND last_name LIKE 'Barrett' AND email LIKE 'tracey.barrett@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -15874,7 +15874,7 @@
       </c>
       <c r="K283" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Leona' AND last_name LIKE 'Obrien' AND email LIKE 'leona.obrien@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Leona' AND last_name LIKE 'Obrien' AND email LIKE 'leona.obrien@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -15910,7 +15910,7 @@
       </c>
       <c r="K284" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jenny' AND last_name LIKE 'Castro' AND email LIKE 'jenny.castro@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jenny' AND last_name LIKE 'Castro' AND email LIKE 'jenny.castro@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="K285" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Felicia' AND last_name LIKE 'Sutton' AND email LIKE 'felicia.sutton@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Felicia' AND last_name LIKE 'Sutton' AND email LIKE 'felicia.sutton@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -15982,7 +15982,7 @@
       </c>
       <c r="K286" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sonia' AND last_name LIKE 'Gregory' AND email LIKE 'sonia.gregory@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sonia' AND last_name LIKE 'Gregory' AND email LIKE 'sonia.gregory@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -16018,7 +16018,7 @@
       </c>
       <c r="K287" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Miriam' AND last_name LIKE 'Mckinney' AND email LIKE 'miriam.mckinney@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Miriam' AND last_name LIKE 'Mckinney' AND email LIKE 'miriam.mckinney@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="K288" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Velma' AND last_name LIKE 'Lucas' AND email LIKE 'velma.lucas@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Velma' AND last_name LIKE 'Lucas' AND email LIKE 'velma.lucas@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="K289" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Becky' AND last_name LIKE 'Miles' AND email LIKE 'becky.miles@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Becky' AND last_name LIKE 'Miles' AND email LIKE 'becky.miles@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -16126,7 +16126,7 @@
       </c>
       <c r="K290" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bobbie' AND last_name LIKE 'Craig' AND email LIKE 'bobbie.craig@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bobbie' AND last_name LIKE 'Craig' AND email LIKE 'bobbie.craig@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -16162,7 +16162,7 @@
       </c>
       <c r="K291" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Violet' AND last_name LIKE 'Rodriquez' AND email LIKE 'violet.rodriquez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Violet' AND last_name LIKE 'Rodriquez' AND email LIKE 'violet.rodriquez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -16198,7 +16198,7 @@
       </c>
       <c r="K292" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kristina' AND last_name LIKE 'Chambers' AND email LIKE 'kristina.chambers@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kristina' AND last_name LIKE 'Chambers' AND email LIKE 'kristina.chambers@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -16234,7 +16234,7 @@
       </c>
       <c r="K293" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Toni' AND last_name LIKE 'Holt' AND email LIKE 'toni.holt@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Toni' AND last_name LIKE 'Holt' AND email LIKE 'toni.holt@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="K294" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Misty' AND last_name LIKE 'Lambert' AND email LIKE 'misty.lambert@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Misty' AND last_name LIKE 'Lambert' AND email LIKE 'misty.lambert@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -16306,7 +16306,7 @@
       </c>
       <c r="K295" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Mae' AND last_name LIKE 'Fletcher' AND email LIKE 'mae.fletcher@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Mae' AND last_name LIKE 'Fletcher' AND email LIKE 'mae.fletcher@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -16342,7 +16342,7 @@
       </c>
       <c r="K296" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Shelly' AND last_name LIKE 'Watts' AND email LIKE 'shelly.watts@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Shelly' AND last_name LIKE 'Watts' AND email LIKE 'shelly.watts@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="K297" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Daisy' AND last_name LIKE 'Bates' AND email LIKE 'daisy.bates@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Daisy' AND last_name LIKE 'Bates' AND email LIKE 'daisy.bates@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="K298" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ramona' AND last_name LIKE 'Hale' AND email LIKE 'ramona.hale@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ramona' AND last_name LIKE 'Hale' AND email LIKE 'ramona.hale@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -16450,7 +16450,7 @@
       </c>
       <c r="K299" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sherri' AND last_name LIKE 'Rhodes' AND email LIKE 'sherri.rhodes@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sherri' AND last_name LIKE 'Rhodes' AND email LIKE 'sherri.rhodes@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="K300" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Erika' AND last_name LIKE 'Pena' AND email LIKE 'erika.pena@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Erika' AND last_name LIKE 'Pena' AND email LIKE 'erika.pena@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="K301" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'James' AND last_name LIKE 'Gannon' AND email LIKE 'james.gannon@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'James' AND last_name LIKE 'Gannon' AND email LIKE 'james.gannon@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="K302" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'John' AND last_name LIKE 'Farnsworth' AND email LIKE 'john.farnsworth@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'John' AND last_name LIKE 'Farnsworth' AND email LIKE 'john.farnsworth@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="K303" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Robert' AND last_name LIKE 'Baughman' AND email LIKE 'robert.baughman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Robert' AND last_name LIKE 'Baughman' AND email LIKE 'robert.baughman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -16630,7 +16630,7 @@
       </c>
       <c r="K304" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Michael' AND last_name LIKE 'Silverman' AND email LIKE 'michael.silverman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Michael' AND last_name LIKE 'Silverman' AND email LIKE 'michael.silverman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -16666,7 +16666,7 @@
       </c>
       <c r="K305" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'William' AND last_name LIKE 'Satterfield' AND email LIKE 'william.satterfield@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'William' AND last_name LIKE 'Satterfield' AND email LIKE 'william.satterfield@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -16702,7 +16702,7 @@
       </c>
       <c r="K306" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'David' AND last_name LIKE 'Royal' AND email LIKE 'david.royal@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'David' AND last_name LIKE 'Royal' AND email LIKE 'david.royal@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
@@ -16738,7 +16738,7 @@
       </c>
       <c r="K307" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Richard' AND last_name LIKE 'Mccrary' AND email LIKE 'richard.mccrary@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Richard' AND last_name LIKE 'Mccrary' AND email LIKE 'richard.mccrary@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="K308" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Charles' AND last_name LIKE 'Kowalski' AND email LIKE 'charles.kowalski@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Charles' AND last_name LIKE 'Kowalski' AND email LIKE 'charles.kowalski@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -16810,7 +16810,7 @@
       </c>
       <c r="K309" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Joseph' AND last_name LIKE 'Joy' AND email LIKE 'joseph.joy@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Joseph' AND last_name LIKE 'Joy' AND email LIKE 'joseph.joy@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -16846,7 +16846,7 @@
       </c>
       <c r="K310" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Thomas' AND last_name LIKE 'Grigsby' AND email LIKE 'thomas.grigsby@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Thomas' AND last_name LIKE 'Grigsby' AND email LIKE 'thomas.grigsby@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -16882,7 +16882,7 @@
       </c>
       <c r="K311" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Christopher' AND last_name LIKE 'Greco' AND email LIKE 'christopher.greco@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Christopher' AND last_name LIKE 'Greco' AND email LIKE 'christopher.greco@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -16918,7 +16918,7 @@
       </c>
       <c r="K312" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Daniel' AND last_name LIKE 'Cabral' AND email LIKE 'daniel.cabral@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Daniel' AND last_name LIKE 'Cabral' AND email LIKE 'daniel.cabral@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -16954,7 +16954,7 @@
       </c>
       <c r="K313" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Paul' AND last_name LIKE 'Trout' AND email LIKE 'paul.trout@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Paul' AND last_name LIKE 'Trout' AND email LIKE 'paul.trout@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -16990,7 +16990,7 @@
       </c>
       <c r="K314" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Mark' AND last_name LIKE 'Rinehart' AND email LIKE 'mark.rinehart@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Mark' AND last_name LIKE 'Rinehart' AND email LIKE 'mark.rinehart@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -17026,7 +17026,7 @@
       </c>
       <c r="K315" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Donald' AND last_name LIKE 'Mahon' AND email LIKE 'donald.mahon@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Donald' AND last_name LIKE 'Mahon' AND email LIKE 'donald.mahon@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
@@ -17062,7 +17062,7 @@
       </c>
       <c r="K316" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'George' AND last_name LIKE 'Linton' AND email LIKE 'george.linton@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'George' AND last_name LIKE 'Linton' AND email LIKE 'george.linton@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="K317" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kenneth' AND last_name LIKE 'Gooden' AND email LIKE 'kenneth.gooden@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kenneth' AND last_name LIKE 'Gooden' AND email LIKE 'kenneth.gooden@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
@@ -17134,7 +17134,7 @@
       </c>
       <c r="K318" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Steven' AND last_name LIKE 'Curley' AND email LIKE 'steven.curley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Steven' AND last_name LIKE 'Curley' AND email LIKE 'steven.curley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -17170,7 +17170,7 @@
       </c>
       <c r="K319" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Edward' AND last_name LIKE 'Baugh' AND email LIKE 'edward.baugh@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Edward' AND last_name LIKE 'Baugh' AND email LIKE 'edward.baugh@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
@@ -17206,7 +17206,7 @@
       </c>
       <c r="K320" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Brian' AND last_name LIKE 'Wyman' AND email LIKE 'brian.wyman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Brian' AND last_name LIKE 'Wyman' AND email LIKE 'brian.wyman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
@@ -17242,7 +17242,7 @@
       </c>
       <c r="K321" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ronald' AND last_name LIKE 'Weiner' AND email LIKE 'ronald.weiner@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ronald' AND last_name LIKE 'Weiner' AND email LIKE 'ronald.weiner@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
@@ -17278,7 +17278,7 @@
       </c>
       <c r="K322" t="str">
         <f t="shared" si="4"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Anthony' AND last_name LIKE 'Schwab' AND email LIKE 'anthony.schwab@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Anthony' AND last_name LIKE 'Schwab' AND email LIKE 'anthony.schwab@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
@@ -17313,8 +17313,8 @@
         <v>1</v>
       </c>
       <c r="K323" t="str">
-        <f t="shared" ref="K323:K386" si="5">CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C323,"' AND last_name LIKE '",$D323,"' AND email LIKE '",$E323,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kevin' AND last_name LIKE 'Schuler' AND email LIKE 'kevin.schuler@sakilacustomer.org' FROM customer</v>
+        <f t="shared" ref="K323:K386" si="5">CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C323,"' AND last_name LIKE '",$D323,"' AND email LIKE '",$E323,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kevin' AND last_name LIKE 'Schuler' AND email LIKE 'kevin.schuler@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
@@ -17350,7 +17350,7 @@
       </c>
       <c r="K324" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jason' AND last_name LIKE 'Morrissey' AND email LIKE 'jason.morrissey@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jason' AND last_name LIKE 'Morrissey' AND email LIKE 'jason.morrissey@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
@@ -17386,7 +17386,7 @@
       </c>
       <c r="K325" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Matthew' AND last_name LIKE 'Mahan' AND email LIKE 'matthew.mahan@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Matthew' AND last_name LIKE 'Mahan' AND email LIKE 'matthew.mahan@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
@@ -17422,7 +17422,7 @@
       </c>
       <c r="K326" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gary' AND last_name LIKE 'Coy' AND email LIKE 'gary.coy@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gary' AND last_name LIKE 'Coy' AND email LIKE 'gary.coy@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
@@ -17458,7 +17458,7 @@
       </c>
       <c r="K327" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Timothy' AND last_name LIKE 'Bunn' AND email LIKE 'timothy.bunn@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Timothy' AND last_name LIKE 'Bunn' AND email LIKE 'timothy.bunn@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
@@ -17494,7 +17494,7 @@
       </c>
       <c r="K328" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jose' AND last_name LIKE 'Andrew' AND email LIKE 'jose.andrew@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jose' AND last_name LIKE 'Andrew' AND email LIKE 'jose.andrew@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="K329" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Larry' AND last_name LIKE 'Thrasher' AND email LIKE 'larry.thrasher@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Larry' AND last_name LIKE 'Thrasher' AND email LIKE 'larry.thrasher@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
@@ -17566,7 +17566,7 @@
       </c>
       <c r="K330" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jeffrey' AND last_name LIKE 'Spear' AND email LIKE 'jeffrey.spear@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jeffrey' AND last_name LIKE 'Spear' AND email LIKE 'jeffrey.spear@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
@@ -17602,7 +17602,7 @@
       </c>
       <c r="K331" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Frank' AND last_name LIKE 'Waggoner' AND email LIKE 'frank.waggoner@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Frank' AND last_name LIKE 'Waggoner' AND email LIKE 'frank.waggoner@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
@@ -17638,7 +17638,7 @@
       </c>
       <c r="K332" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Scott' AND last_name LIKE 'Shelley' AND email LIKE 'scott.shelley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Scott' AND last_name LIKE 'Shelley' AND email LIKE 'scott.shelley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="K333" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Eric' AND last_name LIKE 'Robert' AND email LIKE 'eric.robert@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Eric' AND last_name LIKE 'Robert' AND email LIKE 'eric.robert@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
@@ -17710,7 +17710,7 @@
       </c>
       <c r="K334" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Stephen' AND last_name LIKE 'Qualls' AND email LIKE 'stephen.qualls@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Stephen' AND last_name LIKE 'Qualls' AND email LIKE 'stephen.qualls@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="K335" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Andrew' AND last_name LIKE 'Purdy' AND email LIKE 'andrew.purdy@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Andrew' AND last_name LIKE 'Purdy' AND email LIKE 'andrew.purdy@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
@@ -17782,7 +17782,7 @@
       </c>
       <c r="K336" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Raymond' AND last_name LIKE 'Mcwhorter' AND email LIKE 'raymond.mcwhorter@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Raymond' AND last_name LIKE 'Mcwhorter' AND email LIKE 'raymond.mcwhorter@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
@@ -17818,7 +17818,7 @@
       </c>
       <c r="K337" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gregory' AND last_name LIKE 'Mauldin' AND email LIKE 'gregory.mauldin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gregory' AND last_name LIKE 'Mauldin' AND email LIKE 'gregory.mauldin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
@@ -17854,7 +17854,7 @@
       </c>
       <c r="K338" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Joshua' AND last_name LIKE 'Mark' AND email LIKE 'joshua.mark@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Joshua' AND last_name LIKE 'Mark' AND email LIKE 'joshua.mark@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="K339" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jerry' AND last_name LIKE 'Jordon' AND email LIKE 'jerry.jordon@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jerry' AND last_name LIKE 'Jordon' AND email LIKE 'jerry.jordon@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
@@ -17926,7 +17926,7 @@
       </c>
       <c r="K340" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dennis' AND last_name LIKE 'Gilman' AND email LIKE 'dennis.gilman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dennis' AND last_name LIKE 'Gilman' AND email LIKE 'dennis.gilman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
@@ -17962,7 +17962,7 @@
       </c>
       <c r="K341" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Walter' AND last_name LIKE 'Perryman' AND email LIKE 'walter.perryman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Walter' AND last_name LIKE 'Perryman' AND email LIKE 'walter.perryman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
@@ -17998,7 +17998,7 @@
       </c>
       <c r="K342" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Patrick' AND last_name LIKE 'Newsom' AND email LIKE 'patrick.newsom@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Patrick' AND last_name LIKE 'Newsom' AND email LIKE 'patrick.newsom@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
@@ -18034,7 +18034,7 @@
       </c>
       <c r="K343" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Peter' AND last_name LIKE 'Menard' AND email LIKE 'peter.menard@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Peter' AND last_name LIKE 'Menard' AND email LIKE 'peter.menard@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
@@ -18070,7 +18070,7 @@
       </c>
       <c r="K344" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Harold' AND last_name LIKE 'Martino' AND email LIKE 'harold.martino@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Harold' AND last_name LIKE 'Martino' AND email LIKE 'harold.martino@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
@@ -18106,7 +18106,7 @@
       </c>
       <c r="K345" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Douglas' AND last_name LIKE 'Graf' AND email LIKE 'douglas.graf@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Douglas' AND last_name LIKE 'Graf' AND email LIKE 'douglas.graf@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
@@ -18142,7 +18142,7 @@
       </c>
       <c r="K346" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Henry' AND last_name LIKE 'Billingsley' AND email LIKE 'henry.billingsley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Henry' AND last_name LIKE 'Billingsley' AND email LIKE 'henry.billingsley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
@@ -18178,7 +18178,7 @@
       </c>
       <c r="K347" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Carl' AND last_name LIKE 'Artis' AND email LIKE 'carl.artis@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Carl' AND last_name LIKE 'Artis' AND email LIKE 'carl.artis@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -18214,7 +18214,7 @@
       </c>
       <c r="K348" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Arthur' AND last_name LIKE 'Simpkins' AND email LIKE 'arthur.simpkins@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Arthur' AND last_name LIKE 'Simpkins' AND email LIKE 'arthur.simpkins@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
@@ -18250,7 +18250,7 @@
       </c>
       <c r="K349" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ryan' AND last_name LIKE 'Salisbury' AND email LIKE 'ryan.salisbury@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ryan' AND last_name LIKE 'Salisbury' AND email LIKE 'ryan.salisbury@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
@@ -18286,7 +18286,7 @@
       </c>
       <c r="K350" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Roger' AND last_name LIKE 'Quintanilla' AND email LIKE 'roger.quintanilla@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Roger' AND last_name LIKE 'Quintanilla' AND email LIKE 'roger.quintanilla@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -18322,7 +18322,7 @@
       </c>
       <c r="K351" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Joe' AND last_name LIKE 'Gilliland' AND email LIKE 'joe.gilliland@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Joe' AND last_name LIKE 'Gilliland' AND email LIKE 'joe.gilliland@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="K352" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Juan' AND last_name LIKE 'Fraley' AND email LIKE 'juan.fraley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Juan' AND last_name LIKE 'Fraley' AND email LIKE 'juan.fraley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
@@ -18394,7 +18394,7 @@
       </c>
       <c r="K353" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jack' AND last_name LIKE 'Foust' AND email LIKE 'jack.foust@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jack' AND last_name LIKE 'Foust' AND email LIKE 'jack.foust@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
@@ -18430,7 +18430,7 @@
       </c>
       <c r="K354" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Albert' AND last_name LIKE 'Crouse' AND email LIKE 'albert.crouse@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Albert' AND last_name LIKE 'Crouse' AND email LIKE 'albert.crouse@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
@@ -18466,7 +18466,7 @@
       </c>
       <c r="K355" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jonathan' AND last_name LIKE 'Scarborough' AND email LIKE 'jonathan.scarborough@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jonathan' AND last_name LIKE 'Scarborough' AND email LIKE 'jonathan.scarborough@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
@@ -18502,7 +18502,7 @@
       </c>
       <c r="K356" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Justin' AND last_name LIKE 'Ngo' AND email LIKE 'justin.ngo@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Justin' AND last_name LIKE 'Ngo' AND email LIKE 'justin.ngo@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="K357" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Terry' AND last_name LIKE 'Grissom' AND email LIKE 'terry.grissom@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Terry' AND last_name LIKE 'Grissom' AND email LIKE 'terry.grissom@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
@@ -18574,7 +18574,7 @@
       </c>
       <c r="K358" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gerald' AND last_name LIKE 'Fultz' AND email LIKE 'gerald.fultz@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gerald' AND last_name LIKE 'Fultz' AND email LIKE 'gerald.fultz@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
@@ -18610,7 +18610,7 @@
       </c>
       <c r="K359" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Keith' AND last_name LIKE 'Rico' AND email LIKE 'keith.rico@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Keith' AND last_name LIKE 'Rico' AND email LIKE 'keith.rico@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
@@ -18646,7 +18646,7 @@
       </c>
       <c r="K360" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Samuel' AND last_name LIKE 'Marlow' AND email LIKE 'samuel.marlow@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Samuel' AND last_name LIKE 'Marlow' AND email LIKE 'samuel.marlow@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
@@ -18682,7 +18682,7 @@
       </c>
       <c r="K361" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Willie' AND last_name LIKE 'Markham' AND email LIKE 'willie.markham@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Willie' AND last_name LIKE 'Markham' AND email LIKE 'willie.markham@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
@@ -18718,7 +18718,7 @@
       </c>
       <c r="K362" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ralph' AND last_name LIKE 'Madrigal' AND email LIKE 'ralph.madrigal@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ralph' AND last_name LIKE 'Madrigal' AND email LIKE 'ralph.madrigal@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
@@ -18754,7 +18754,7 @@
       </c>
       <c r="K363" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lawrence' AND last_name LIKE 'Lawton' AND email LIKE 'lawrence.lawton@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lawrence' AND last_name LIKE 'Lawton' AND email LIKE 'lawrence.lawton@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
@@ -18790,7 +18790,7 @@
       </c>
       <c r="K364" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Nicholas' AND last_name LIKE 'Barfield' AND email LIKE 'nicholas.barfield@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Nicholas' AND last_name LIKE 'Barfield' AND email LIKE 'nicholas.barfield@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
@@ -18826,7 +18826,7 @@
       </c>
       <c r="K365" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Roy' AND last_name LIKE 'Whiting' AND email LIKE 'roy.whiting@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Roy' AND last_name LIKE 'Whiting' AND email LIKE 'roy.whiting@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
@@ -18862,7 +18862,7 @@
       </c>
       <c r="K366" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Benjamin' AND last_name LIKE 'Varney' AND email LIKE 'benjamin.varney@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Benjamin' AND last_name LIKE 'Varney' AND email LIKE 'benjamin.varney@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
@@ -18898,7 +18898,7 @@
       </c>
       <c r="K367" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bruce' AND last_name LIKE 'Schwarz' AND email LIKE 'bruce.schwarz@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bruce' AND last_name LIKE 'Schwarz' AND email LIKE 'bruce.schwarz@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
@@ -18934,7 +18934,7 @@
       </c>
       <c r="K368" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Brandon' AND last_name LIKE 'Huey' AND email LIKE 'brandon.huey@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Brandon' AND last_name LIKE 'Huey' AND email LIKE 'brandon.huey@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -18970,7 +18970,7 @@
       </c>
       <c r="K369" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Adam' AND last_name LIKE 'Gooch' AND email LIKE 'adam.gooch@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Adam' AND last_name LIKE 'Gooch' AND email LIKE 'adam.gooch@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
@@ -19006,7 +19006,7 @@
       </c>
       <c r="K370" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Harry' AND last_name LIKE 'Arce' AND email LIKE 'harry.arce@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Harry' AND last_name LIKE 'Arce' AND email LIKE 'harry.arce@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
@@ -19042,7 +19042,7 @@
       </c>
       <c r="K371" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Fred' AND last_name LIKE 'Wheat' AND email LIKE 'fred.wheat@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Fred' AND last_name LIKE 'Wheat' AND email LIKE 'fred.wheat@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
@@ -19078,7 +19078,7 @@
       </c>
       <c r="K372" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Wayne' AND last_name LIKE 'Truong' AND email LIKE 'wayne.truong@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Wayne' AND last_name LIKE 'Truong' AND email LIKE 'wayne.truong@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
@@ -19114,7 +19114,7 @@
       </c>
       <c r="K373" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Billy' AND last_name LIKE 'Poulin' AND email LIKE 'billy.poulin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Billy' AND last_name LIKE 'Poulin' AND email LIKE 'billy.poulin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="K374" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Steve' AND last_name LIKE 'Mackenzie' AND email LIKE 'steve.mackenzie@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Steve' AND last_name LIKE 'Mackenzie' AND email LIKE 'steve.mackenzie@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
@@ -19186,7 +19186,7 @@
       </c>
       <c r="K375" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Louis' AND last_name LIKE 'Leone' AND email LIKE 'louis.leone@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Louis' AND last_name LIKE 'Leone' AND email LIKE 'louis.leone@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
@@ -19222,7 +19222,7 @@
       </c>
       <c r="K376" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jeremy' AND last_name LIKE 'Hurtado' AND email LIKE 'jeremy.hurtado@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jeremy' AND last_name LIKE 'Hurtado' AND email LIKE 'jeremy.hurtado@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
@@ -19258,7 +19258,7 @@
       </c>
       <c r="K377" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Aaron' AND last_name LIKE 'Selby' AND email LIKE 'aaron.selby@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Aaron' AND last_name LIKE 'Selby' AND email LIKE 'aaron.selby@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
@@ -19294,7 +19294,7 @@
       </c>
       <c r="K378" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Randy' AND last_name LIKE 'Gaither' AND email LIKE 'randy.gaither@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Randy' AND last_name LIKE 'Gaither' AND email LIKE 'randy.gaither@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
@@ -19330,7 +19330,7 @@
       </c>
       <c r="K379" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Howard' AND last_name LIKE 'Fortner' AND email LIKE 'howard.fortner@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Howard' AND last_name LIKE 'Fortner' AND email LIKE 'howard.fortner@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
@@ -19366,7 +19366,7 @@
       </c>
       <c r="K380" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Eugene' AND last_name LIKE 'Culpepper' AND email LIKE 'eugene.culpepper@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Eugene' AND last_name LIKE 'Culpepper' AND email LIKE 'eugene.culpepper@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
@@ -19402,7 +19402,7 @@
       </c>
       <c r="K381" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Carlos' AND last_name LIKE 'Coughlin' AND email LIKE 'carlos.coughlin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Carlos' AND last_name LIKE 'Coughlin' AND email LIKE 'carlos.coughlin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
@@ -19438,7 +19438,7 @@
       </c>
       <c r="K382" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Russell' AND last_name LIKE 'Brinson' AND email LIKE 'russell.brinson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Russell' AND last_name LIKE 'Brinson' AND email LIKE 'russell.brinson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
@@ -19474,7 +19474,7 @@
       </c>
       <c r="K383" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bobby' AND last_name LIKE 'Boudreau' AND email LIKE 'bobby.boudreau@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bobby' AND last_name LIKE 'Boudreau' AND email LIKE 'bobby.boudreau@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
@@ -19510,7 +19510,7 @@
       </c>
       <c r="K384" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Victor' AND last_name LIKE 'Barkley' AND email LIKE 'victor.barkley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Victor' AND last_name LIKE 'Barkley' AND email LIKE 'victor.barkley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
@@ -19546,7 +19546,7 @@
       </c>
       <c r="K385" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Martin' AND last_name LIKE 'Bales' AND email LIKE 'martin.bales@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Martin' AND last_name LIKE 'Bales' AND email LIKE 'martin.bales@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
@@ -19582,7 +19582,7 @@
       </c>
       <c r="K386" t="str">
         <f t="shared" si="5"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ernest' AND last_name LIKE 'Stepp' AND email LIKE 'ernest.stepp@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ernest' AND last_name LIKE 'Stepp' AND email LIKE 'ernest.stepp@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
@@ -19617,8 +19617,8 @@
         <v>1</v>
       </c>
       <c r="K387" t="str">
-        <f t="shared" ref="K387:K450" si="6">CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C387,"' AND last_name LIKE '",$D387,"' AND email LIKE '",$E387,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Phillip' AND last_name LIKE 'Holm' AND email LIKE 'phillip.holm@sakilacustomer.org' FROM customer</v>
+        <f t="shared" ref="K387:K450" si="6">CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C387,"' AND last_name LIKE '",$D387,"' AND email LIKE '",$E387,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Phillip' AND last_name LIKE 'Holm' AND email LIKE 'phillip.holm@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -19654,7 +19654,7 @@
       </c>
       <c r="K388" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Todd' AND last_name LIKE 'Tan' AND email LIKE 'todd.tan@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Todd' AND last_name LIKE 'Tan' AND email LIKE 'todd.tan@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
@@ -19690,7 +19690,7 @@
       </c>
       <c r="K389" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jesse' AND last_name LIKE 'Schilling' AND email LIKE 'jesse.schilling@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jesse' AND last_name LIKE 'Schilling' AND email LIKE 'jesse.schilling@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
@@ -19726,7 +19726,7 @@
       </c>
       <c r="K390" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Craig' AND last_name LIKE 'Morrell' AND email LIKE 'craig.morrell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Craig' AND last_name LIKE 'Morrell' AND email LIKE 'craig.morrell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="K391" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Alan' AND last_name LIKE 'Kahn' AND email LIKE 'alan.kahn@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Alan' AND last_name LIKE 'Kahn' AND email LIKE 'alan.kahn@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
@@ -19798,7 +19798,7 @@
       </c>
       <c r="K392" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Shawn' AND last_name LIKE 'Heaton' AND email LIKE 'shawn.heaton@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Shawn' AND last_name LIKE 'Heaton' AND email LIKE 'shawn.heaton@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
@@ -19834,7 +19834,7 @@
       </c>
       <c r="K393" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Clarence' AND last_name LIKE 'Gamez' AND email LIKE 'clarence.gamez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Clarence' AND last_name LIKE 'Gamez' AND email LIKE 'clarence.gamez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
@@ -19870,7 +19870,7 @@
       </c>
       <c r="K394" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sean' AND last_name LIKE 'Douglass' AND email LIKE 'sean.douglass@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sean' AND last_name LIKE 'Douglass' AND email LIKE 'sean.douglass@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
@@ -19906,7 +19906,7 @@
       </c>
       <c r="K395" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Philip' AND last_name LIKE 'Causey' AND email LIKE 'philip.causey@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Philip' AND last_name LIKE 'Causey' AND email LIKE 'philip.causey@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
@@ -19942,7 +19942,7 @@
       </c>
       <c r="K396" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Chris' AND last_name LIKE 'Brothers' AND email LIKE 'chris.brothers@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Chris' AND last_name LIKE 'Brothers' AND email LIKE 'chris.brothers@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
@@ -19978,7 +19978,7 @@
       </c>
       <c r="K397" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Johnny' AND last_name LIKE 'Turpin' AND email LIKE 'johnny.turpin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Johnny' AND last_name LIKE 'Turpin' AND email LIKE 'johnny.turpin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
@@ -20014,7 +20014,7 @@
       </c>
       <c r="K398" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Earl' AND last_name LIKE 'Shanks' AND email LIKE 'earl.shanks@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Earl' AND last_name LIKE 'Shanks' AND email LIKE 'earl.shanks@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="K399" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jimmy' AND last_name LIKE 'Schrader' AND email LIKE 'jimmy.schrader@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jimmy' AND last_name LIKE 'Schrader' AND email LIKE 'jimmy.schrader@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
@@ -20086,7 +20086,7 @@
       </c>
       <c r="K400" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Antonio' AND last_name LIKE 'Meek' AND email LIKE 'antonio.meek@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Antonio' AND last_name LIKE 'Meek' AND email LIKE 'antonio.meek@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
@@ -20122,7 +20122,7 @@
       </c>
       <c r="K401" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Danny' AND last_name LIKE 'Isom' AND email LIKE 'danny.isom@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Danny' AND last_name LIKE 'Isom' AND email LIKE 'danny.isom@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
@@ -20158,7 +20158,7 @@
       </c>
       <c r="K402" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bryan' AND last_name LIKE 'Hardison' AND email LIKE 'bryan.hardison@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bryan' AND last_name LIKE 'Hardison' AND email LIKE 'bryan.hardison@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
@@ -20194,7 +20194,7 @@
       </c>
       <c r="K403" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tony' AND last_name LIKE 'Carranza' AND email LIKE 'tony.carranza@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tony' AND last_name LIKE 'Carranza' AND email LIKE 'tony.carranza@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
@@ -20230,7 +20230,7 @@
       </c>
       <c r="K404" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Luis' AND last_name LIKE 'Yanez' AND email LIKE 'luis.yanez@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Luis' AND last_name LIKE 'Yanez' AND email LIKE 'luis.yanez@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
@@ -20266,7 +20266,7 @@
       </c>
       <c r="K405" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Mike' AND last_name LIKE 'Way' AND email LIKE 'mike.way@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Mike' AND last_name LIKE 'Way' AND email LIKE 'mike.way@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
@@ -20302,7 +20302,7 @@
       </c>
       <c r="K406" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Stanley' AND last_name LIKE 'Scroggins' AND email LIKE 'stanley.scroggins@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Stanley' AND last_name LIKE 'Scroggins' AND email LIKE 'stanley.scroggins@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
@@ -20338,7 +20338,7 @@
       </c>
       <c r="K407" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Leonard' AND last_name LIKE 'Schofield' AND email LIKE 'leonard.schofield@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Leonard' AND last_name LIKE 'Schofield' AND email LIKE 'leonard.schofield@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
@@ -20374,7 +20374,7 @@
       </c>
       <c r="K408" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Nathan' AND last_name LIKE 'Runyon' AND email LIKE 'nathan.runyon@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Nathan' AND last_name LIKE 'Runyon' AND email LIKE 'nathan.runyon@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
@@ -20410,7 +20410,7 @@
       </c>
       <c r="K409" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dale' AND last_name LIKE 'Ratcliff' AND email LIKE 'dale.ratcliff@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dale' AND last_name LIKE 'Ratcliff' AND email LIKE 'dale.ratcliff@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
@@ -20446,7 +20446,7 @@
       </c>
       <c r="K410" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Manuel' AND last_name LIKE 'Murrell' AND email LIKE 'manuel.murrell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Manuel' AND last_name LIKE 'Murrell' AND email LIKE 'manuel.murrell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
@@ -20482,7 +20482,7 @@
       </c>
       <c r="K411" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rodney' AND last_name LIKE 'Moeller' AND email LIKE 'rodney.moeller@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rodney' AND last_name LIKE 'Moeller' AND email LIKE 'rodney.moeller@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
@@ -20518,7 +20518,7 @@
       </c>
       <c r="K412" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Curtis' AND last_name LIKE 'Irby' AND email LIKE 'curtis.irby@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Curtis' AND last_name LIKE 'Irby' AND email LIKE 'curtis.irby@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
@@ -20554,7 +20554,7 @@
       </c>
       <c r="K413" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Norman' AND last_name LIKE 'Currier' AND email LIKE 'norman.currier@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Norman' AND last_name LIKE 'Currier' AND email LIKE 'norman.currier@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
@@ -20590,7 +20590,7 @@
       </c>
       <c r="K414" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Allen' AND last_name LIKE 'Butterfield' AND email LIKE 'allen.butterfield@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Allen' AND last_name LIKE 'Butterfield' AND email LIKE 'allen.butterfield@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
@@ -20626,7 +20626,7 @@
       </c>
       <c r="K415" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marvin' AND last_name LIKE 'Yee' AND email LIKE 'marvin.yee@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marvin' AND last_name LIKE 'Yee' AND email LIKE 'marvin.yee@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
@@ -20662,7 +20662,7 @@
       </c>
       <c r="K416" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Vincent' AND last_name LIKE 'Ralston' AND email LIKE 'vincent.ralston@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Vincent' AND last_name LIKE 'Ralston' AND email LIKE 'vincent.ralston@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -20698,7 +20698,7 @@
       </c>
       <c r="K417" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Glenn' AND last_name LIKE 'Pullen' AND email LIKE 'glenn.pullen@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Glenn' AND last_name LIKE 'Pullen' AND email LIKE 'glenn.pullen@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
@@ -20734,7 +20734,7 @@
       </c>
       <c r="K418" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jeffery' AND last_name LIKE 'Pinson' AND email LIKE 'jeffery.pinson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jeffery' AND last_name LIKE 'Pinson' AND email LIKE 'jeffery.pinson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
@@ -20770,7 +20770,7 @@
       </c>
       <c r="K419" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Travis' AND last_name LIKE 'Estep' AND email LIKE 'travis.estep@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Travis' AND last_name LIKE 'Estep' AND email LIKE 'travis.estep@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="K420" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jeff' AND last_name LIKE 'East' AND email LIKE 'jeff.east@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jeff' AND last_name LIKE 'East' AND email LIKE 'jeff.east@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="K421" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Chad' AND last_name LIKE 'Carbone' AND email LIKE 'chad.carbone@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Chad' AND last_name LIKE 'Carbone' AND email LIKE 'chad.carbone@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="K422" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jacob' AND last_name LIKE 'Lance' AND email LIKE 'jacob.lance@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jacob' AND last_name LIKE 'Lance' AND email LIKE 'jacob.lance@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
@@ -20914,7 +20914,7 @@
       </c>
       <c r="K423" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lee' AND last_name LIKE 'Hawks' AND email LIKE 'lee.hawks@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lee' AND last_name LIKE 'Hawks' AND email LIKE 'lee.hawks@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
@@ -20950,7 +20950,7 @@
       </c>
       <c r="K424" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Melvin' AND last_name LIKE 'Ellington' AND email LIKE 'melvin.ellington@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Melvin' AND last_name LIKE 'Ellington' AND email LIKE 'melvin.ellington@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="K425" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Alfred' AND last_name LIKE 'Casillas' AND email LIKE 'alfred.casillas@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Alfred' AND last_name LIKE 'Casillas' AND email LIKE 'alfred.casillas@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
@@ -21022,7 +21022,7 @@
       </c>
       <c r="K426" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kyle' AND last_name LIKE 'Spurlock' AND email LIKE 'kyle.spurlock@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kyle' AND last_name LIKE 'Spurlock' AND email LIKE 'kyle.spurlock@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
@@ -21058,7 +21058,7 @@
       </c>
       <c r="K427" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Francis' AND last_name LIKE 'Sikes' AND email LIKE 'francis.sikes@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Francis' AND last_name LIKE 'Sikes' AND email LIKE 'francis.sikes@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
@@ -21094,7 +21094,7 @@
       </c>
       <c r="K428" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bradley' AND last_name LIKE 'Motley' AND email LIKE 'bradley.motley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bradley' AND last_name LIKE 'Motley' AND email LIKE 'bradley.motley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
@@ -21130,7 +21130,7 @@
       </c>
       <c r="K429" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jesus' AND last_name LIKE 'Mccartney' AND email LIKE 'jesus.mccartney@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jesus' AND last_name LIKE 'Mccartney' AND email LIKE 'jesus.mccartney@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
@@ -21166,7 +21166,7 @@
       </c>
       <c r="K430" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Herbert' AND last_name LIKE 'Kruger' AND email LIKE 'herbert.kruger@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Herbert' AND last_name LIKE 'Kruger' AND email LIKE 'herbert.kruger@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
@@ -21202,7 +21202,7 @@
       </c>
       <c r="K431" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Frederick' AND last_name LIKE 'Isbell' AND email LIKE 'frederick.isbell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Frederick' AND last_name LIKE 'Isbell' AND email LIKE 'frederick.isbell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
@@ -21238,7 +21238,7 @@
       </c>
       <c r="K432" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ray' AND last_name LIKE 'Houle' AND email LIKE 'ray.houle@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ray' AND last_name LIKE 'Houle' AND email LIKE 'ray.houle@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
@@ -21274,7 +21274,7 @@
       </c>
       <c r="K433" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Joel' AND last_name LIKE 'Francisco' AND email LIKE 'joel.francisco@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Joel' AND last_name LIKE 'Francisco' AND email LIKE 'joel.francisco@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
@@ -21310,7 +21310,7 @@
       </c>
       <c r="K434" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Edwin' AND last_name LIKE 'Burk' AND email LIKE 'edwin.burk@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Edwin' AND last_name LIKE 'Burk' AND email LIKE 'edwin.burk@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
@@ -21346,7 +21346,7 @@
       </c>
       <c r="K435" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Don' AND last_name LIKE 'Bone' AND email LIKE 'don.bone@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Don' AND last_name LIKE 'Bone' AND email LIKE 'don.bone@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
@@ -21382,7 +21382,7 @@
       </c>
       <c r="K436" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Eddie' AND last_name LIKE 'Tomlin' AND email LIKE 'eddie.tomlin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Eddie' AND last_name LIKE 'Tomlin' AND email LIKE 'eddie.tomlin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="K437" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ricky' AND last_name LIKE 'Shelby' AND email LIKE 'ricky.shelby@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ricky' AND last_name LIKE 'Shelby' AND email LIKE 'ricky.shelby@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
@@ -21454,7 +21454,7 @@
       </c>
       <c r="K438" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Troy' AND last_name LIKE 'Quigley' AND email LIKE 'troy.quigley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Troy' AND last_name LIKE 'Quigley' AND email LIKE 'troy.quigley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
@@ -21490,7 +21490,7 @@
       </c>
       <c r="K439" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Randall' AND last_name LIKE 'Neumann' AND email LIKE 'randall.neumann@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Randall' AND last_name LIKE 'Neumann' AND email LIKE 'randall.neumann@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
@@ -21526,7 +21526,7 @@
       </c>
       <c r="K440" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Barry' AND last_name LIKE 'Lovelace' AND email LIKE 'barry.lovelace@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Barry' AND last_name LIKE 'Lovelace' AND email LIKE 'barry.lovelace@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="K441" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Alexander' AND last_name LIKE 'Fennell' AND email LIKE 'alexander.fennell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Alexander' AND last_name LIKE 'Fennell' AND email LIKE 'alexander.fennell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="K442" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bernard' AND last_name LIKE 'Colby' AND email LIKE 'bernard.colby@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bernard' AND last_name LIKE 'Colby' AND email LIKE 'bernard.colby@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
@@ -21634,7 +21634,7 @@
       </c>
       <c r="K443" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Mario' AND last_name LIKE 'Cheatham' AND email LIKE 'mario.cheatham@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Mario' AND last_name LIKE 'Cheatham' AND email LIKE 'mario.cheatham@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
@@ -21670,7 +21670,7 @@
       </c>
       <c r="K444" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Leroy' AND last_name LIKE 'Bustamante' AND email LIKE 'leroy.bustamante@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Leroy' AND last_name LIKE 'Bustamante' AND email LIKE 'leroy.bustamante@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
@@ -21706,7 +21706,7 @@
       </c>
       <c r="K445" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Francisco' AND last_name LIKE 'Skidmore' AND email LIKE 'francisco.skidmore@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Francisco' AND last_name LIKE 'Skidmore' AND email LIKE 'francisco.skidmore@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
@@ -21742,7 +21742,7 @@
       </c>
       <c r="K446" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marcus' AND last_name LIKE 'Hidalgo' AND email LIKE 'marcus.hidalgo@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marcus' AND last_name LIKE 'Hidalgo' AND email LIKE 'marcus.hidalgo@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
@@ -21778,7 +21778,7 @@
       </c>
       <c r="K447" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Micheal' AND last_name LIKE 'Forman' AND email LIKE 'micheal.forman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Micheal' AND last_name LIKE 'Forman' AND email LIKE 'micheal.forman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
@@ -21814,7 +21814,7 @@
       </c>
       <c r="K448" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Theodore' AND last_name LIKE 'Culp' AND email LIKE 'theodore.culp@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Theodore' AND last_name LIKE 'Culp' AND email LIKE 'theodore.culp@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
@@ -21850,7 +21850,7 @@
       </c>
       <c r="K449" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Clifford' AND last_name LIKE 'Bowens' AND email LIKE 'clifford.bowens@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Clifford' AND last_name LIKE 'Bowens' AND email LIKE 'clifford.bowens@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="K450" t="str">
         <f t="shared" si="6"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Miguel' AND last_name LIKE 'Betancourt' AND email LIKE 'miguel.betancourt@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Miguel' AND last_name LIKE 'Betancourt' AND email LIKE 'miguel.betancourt@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
@@ -21921,8 +21921,8 @@
         <v>1</v>
       </c>
       <c r="K451" t="str">
-        <f t="shared" ref="K451:K514" si="7">CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C451,"' AND last_name LIKE '",$D451,"' AND email LIKE '",$E451,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Oscar' AND last_name LIKE 'Aquino' AND email LIKE 'oscar.aquino@sakilacustomer.org' FROM customer</v>
+        <f t="shared" ref="K451:K514" si="7">CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C451,"' AND last_name LIKE '",$D451,"' AND email LIKE '",$E451,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Oscar' AND last_name LIKE 'Aquino' AND email LIKE 'oscar.aquino@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
@@ -21958,7 +21958,7 @@
       </c>
       <c r="K452" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jay' AND last_name LIKE 'Robb' AND email LIKE 'jay.robb@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jay' AND last_name LIKE 'Robb' AND email LIKE 'jay.robb@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
@@ -21994,7 +21994,7 @@
       </c>
       <c r="K453" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jim' AND last_name LIKE 'Rea' AND email LIKE 'jim.rea@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jim' AND last_name LIKE 'Rea' AND email LIKE 'jim.rea@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
@@ -22030,7 +22030,7 @@
       </c>
       <c r="K454" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tom' AND last_name LIKE 'Milner' AND email LIKE 'tom.milner@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tom' AND last_name LIKE 'Milner' AND email LIKE 'tom.milner@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
@@ -22066,7 +22066,7 @@
       </c>
       <c r="K455" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Calvin' AND last_name LIKE 'Martel' AND email LIKE 'calvin.martel@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Calvin' AND last_name LIKE 'Martel' AND email LIKE 'calvin.martel@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
@@ -22102,7 +22102,7 @@
       </c>
       <c r="K456" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Alex' AND last_name LIKE 'Gresham' AND email LIKE 'alex.gresham@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Alex' AND last_name LIKE 'Gresham' AND email LIKE 'alex.gresham@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
@@ -22138,7 +22138,7 @@
       </c>
       <c r="K457" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jon' AND last_name LIKE 'Wiles' AND email LIKE 'jon.wiles@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jon' AND last_name LIKE 'Wiles' AND email LIKE 'jon.wiles@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
@@ -22174,7 +22174,7 @@
       </c>
       <c r="K458" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ronnie' AND last_name LIKE 'Ricketts' AND email LIKE 'ronnie.ricketts@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ronnie' AND last_name LIKE 'Ricketts' AND email LIKE 'ronnie.ricketts@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="K459" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bill' AND last_name LIKE 'Gavin' AND email LIKE 'bill.gavin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bill' AND last_name LIKE 'Gavin' AND email LIKE 'bill.gavin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
@@ -22246,7 +22246,7 @@
       </c>
       <c r="K460" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lloyd' AND last_name LIKE 'Dowd' AND email LIKE 'lloyd.dowd@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lloyd' AND last_name LIKE 'Dowd' AND email LIKE 'lloyd.dowd@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
@@ -22282,7 +22282,7 @@
       </c>
       <c r="K461" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tommy' AND last_name LIKE 'Collazo' AND email LIKE 'tommy.collazo@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tommy' AND last_name LIKE 'Collazo' AND email LIKE 'tommy.collazo@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
@@ -22318,7 +22318,7 @@
       </c>
       <c r="K462" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Leon' AND last_name LIKE 'Bostic' AND email LIKE 'leon.bostic@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Leon' AND last_name LIKE 'Bostic' AND email LIKE 'leon.bostic@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
@@ -22354,7 +22354,7 @@
       </c>
       <c r="K463" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Derek' AND last_name LIKE 'Blakely' AND email LIKE 'derek.blakely@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Derek' AND last_name LIKE 'Blakely' AND email LIKE 'derek.blakely@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
@@ -22390,7 +22390,7 @@
       </c>
       <c r="K464" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Warren' AND last_name LIKE 'Sherrod' AND email LIKE 'warren.sherrod@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Warren' AND last_name LIKE 'Sherrod' AND email LIKE 'warren.sherrod@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
@@ -22426,7 +22426,7 @@
       </c>
       <c r="K465" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Darrell' AND last_name LIKE 'Power' AND email LIKE 'darrell.power@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Darrell' AND last_name LIKE 'Power' AND email LIKE 'darrell.power@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
@@ -22462,7 +22462,7 @@
       </c>
       <c r="K466" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jerome' AND last_name LIKE 'Kenyon' AND email LIKE 'jerome.kenyon@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jerome' AND last_name LIKE 'Kenyon' AND email LIKE 'jerome.kenyon@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
@@ -22498,7 +22498,7 @@
       </c>
       <c r="K467" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Floyd' AND last_name LIKE 'Gandy' AND email LIKE 'floyd.gandy@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Floyd' AND last_name LIKE 'Gandy' AND email LIKE 'floyd.gandy@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
@@ -22534,7 +22534,7 @@
       </c>
       <c r="K468" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Leo' AND last_name LIKE 'Ebert' AND email LIKE 'leo.ebert@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Leo' AND last_name LIKE 'Ebert' AND email LIKE 'leo.ebert@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="K469" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Alvin' AND last_name LIKE 'Deloach' AND email LIKE 'alvin.deloach@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Alvin' AND last_name LIKE 'Deloach' AND email LIKE 'alvin.deloach@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
@@ -22606,7 +22606,7 @@
       </c>
       <c r="K470" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tim' AND last_name LIKE 'Cary' AND email LIKE 'tim.cary@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tim' AND last_name LIKE 'Cary' AND email LIKE 'tim.cary@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
@@ -22642,7 +22642,7 @@
       </c>
       <c r="K471" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Wesley' AND last_name LIKE 'Bull' AND email LIKE 'wesley.bull@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Wesley' AND last_name LIKE 'Bull' AND email LIKE 'wesley.bull@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
@@ -22678,7 +22678,7 @@
       </c>
       <c r="K472" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gordon' AND last_name LIKE 'Allard' AND email LIKE 'gordon.allard@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gordon' AND last_name LIKE 'Allard' AND email LIKE 'gordon.allard@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
@@ -22714,7 +22714,7 @@
       </c>
       <c r="K473" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dean' AND last_name LIKE 'Sauer' AND email LIKE 'dean.sauer@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dean' AND last_name LIKE 'Sauer' AND email LIKE 'dean.sauer@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
@@ -22750,7 +22750,7 @@
       </c>
       <c r="K474" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Greg' AND last_name LIKE 'Robins' AND email LIKE 'greg.robins@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Greg' AND last_name LIKE 'Robins' AND email LIKE 'greg.robins@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
@@ -22786,7 +22786,7 @@
       </c>
       <c r="K475" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jorge' AND last_name LIKE 'Olivares' AND email LIKE 'jorge.olivares@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jorge' AND last_name LIKE 'Olivares' AND email LIKE 'jorge.olivares@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="K476" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dustin' AND last_name LIKE 'Gillette' AND email LIKE 'dustin.gillette@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dustin' AND last_name LIKE 'Gillette' AND email LIKE 'dustin.gillette@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
@@ -22858,7 +22858,7 @@
       </c>
       <c r="K477" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Pedro' AND last_name LIKE 'Chestnut' AND email LIKE 'pedro.chestnut@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Pedro' AND last_name LIKE 'Chestnut' AND email LIKE 'pedro.chestnut@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
@@ -22894,7 +22894,7 @@
       </c>
       <c r="K478" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Derrick' AND last_name LIKE 'Bourque' AND email LIKE 'derrick.bourque@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Derrick' AND last_name LIKE 'Bourque' AND email LIKE 'derrick.bourque@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
@@ -22930,7 +22930,7 @@
       </c>
       <c r="K479" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dan' AND last_name LIKE 'Paine' AND email LIKE 'dan.paine@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dan' AND last_name LIKE 'Paine' AND email LIKE 'dan.paine@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
@@ -22966,7 +22966,7 @@
       </c>
       <c r="K480" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lewis' AND last_name LIKE 'Lyman' AND email LIKE 'lewis.lyman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lewis' AND last_name LIKE 'Lyman' AND email LIKE 'lewis.lyman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
@@ -23002,7 +23002,7 @@
       </c>
       <c r="K481" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Zachary' AND last_name LIKE 'Hite' AND email LIKE 'zachary.hite@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Zachary' AND last_name LIKE 'Hite' AND email LIKE 'zachary.hite@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
@@ -23038,7 +23038,7 @@
       </c>
       <c r="K482" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Corey' AND last_name LIKE 'Hauser' AND email LIKE 'corey.hauser@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Corey' AND last_name LIKE 'Hauser' AND email LIKE 'corey.hauser@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
@@ -23074,7 +23074,7 @@
       </c>
       <c r="K483" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Herman' AND last_name LIKE 'Devore' AND email LIKE 'herman.devore@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Herman' AND last_name LIKE 'Devore' AND email LIKE 'herman.devore@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
@@ -23110,7 +23110,7 @@
       </c>
       <c r="K484" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Maurice' AND last_name LIKE 'Crawley' AND email LIKE 'maurice.crawley@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Maurice' AND last_name LIKE 'Crawley' AND email LIKE 'maurice.crawley@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
@@ -23146,7 +23146,7 @@
       </c>
       <c r="K485" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Vernon' AND last_name LIKE 'Chapa' AND email LIKE 'vernon.chapa@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Vernon' AND last_name LIKE 'Chapa' AND email LIKE 'vernon.chapa@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
@@ -23182,7 +23182,7 @@
       </c>
       <c r="K486" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Roberto' AND last_name LIKE 'Vu' AND email LIKE 'roberto.vu@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Roberto' AND last_name LIKE 'Vu' AND email LIKE 'roberto.vu@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
@@ -23218,7 +23218,7 @@
       </c>
       <c r="K487" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Clyde' AND last_name LIKE 'Tobias' AND email LIKE 'clyde.tobias@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Clyde' AND last_name LIKE 'Tobias' AND email LIKE 'clyde.tobias@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
@@ -23254,7 +23254,7 @@
       </c>
       <c r="K488" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Glen' AND last_name LIKE 'Talbert' AND email LIKE 'glen.talbert@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Glen' AND last_name LIKE 'Talbert' AND email LIKE 'glen.talbert@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
@@ -23290,7 +23290,7 @@
       </c>
       <c r="K489" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Hector' AND last_name LIKE 'Poindexter' AND email LIKE 'hector.poindexter@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Hector' AND last_name LIKE 'Poindexter' AND email LIKE 'hector.poindexter@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
@@ -23326,7 +23326,7 @@
       </c>
       <c r="K490" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Shane' AND last_name LIKE 'Millard' AND email LIKE 'shane.millard@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Shane' AND last_name LIKE 'Millard' AND email LIKE 'shane.millard@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
@@ -23362,7 +23362,7 @@
       </c>
       <c r="K491" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ricardo' AND last_name LIKE 'Meador' AND email LIKE 'ricardo.meador@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ricardo' AND last_name LIKE 'Meador' AND email LIKE 'ricardo.meador@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
@@ -23398,7 +23398,7 @@
       </c>
       <c r="K492" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sam' AND last_name LIKE 'Mcduffie' AND email LIKE 'sam.mcduffie@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sam' AND last_name LIKE 'Mcduffie' AND email LIKE 'sam.mcduffie@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="K493" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rick' AND last_name LIKE 'Mattox' AND email LIKE 'rick.mattox@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rick' AND last_name LIKE 'Mattox' AND email LIKE 'rick.mattox@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="K494" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lester' AND last_name LIKE 'Kraus' AND email LIKE 'lester.kraus@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lester' AND last_name LIKE 'Kraus' AND email LIKE 'lester.kraus@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
@@ -23506,7 +23506,7 @@
       </c>
       <c r="K495" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Brent' AND last_name LIKE 'Harkins' AND email LIKE 'brent.harkins@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Brent' AND last_name LIKE 'Harkins' AND email LIKE 'brent.harkins@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
@@ -23542,7 +23542,7 @@
       </c>
       <c r="K496" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ramon' AND last_name LIKE 'Choate' AND email LIKE 'ramon.choate@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ramon' AND last_name LIKE 'Choate' AND email LIKE 'ramon.choate@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
@@ -23578,7 +23578,7 @@
       </c>
       <c r="K497" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Charlie' AND last_name LIKE 'Bess' AND email LIKE 'charlie.bess@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Charlie' AND last_name LIKE 'Bess' AND email LIKE 'charlie.bess@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
@@ -23614,7 +23614,7 @@
       </c>
       <c r="K498" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tyler' AND last_name LIKE 'Wren' AND email LIKE 'tyler.wren@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tyler' AND last_name LIKE 'Wren' AND email LIKE 'tyler.wren@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
@@ -23650,7 +23650,7 @@
       </c>
       <c r="K499" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gilbert' AND last_name LIKE 'Sledge' AND email LIKE 'gilbert.sledge@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gilbert' AND last_name LIKE 'Sledge' AND email LIKE 'gilbert.sledge@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
@@ -23686,7 +23686,7 @@
       </c>
       <c r="K500" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gene' AND last_name LIKE 'Sanborn' AND email LIKE 'gene.sanborn@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gene' AND last_name LIKE 'Sanborn' AND email LIKE 'gene.sanborn@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
@@ -23722,7 +23722,7 @@
       </c>
       <c r="K501" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marc' AND last_name LIKE 'Outlaw' AND email LIKE 'marc.outlaw@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marc' AND last_name LIKE 'Outlaw' AND email LIKE 'marc.outlaw@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
@@ -23758,7 +23758,7 @@
       </c>
       <c r="K502" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Reginald' AND last_name LIKE 'Kinder' AND email LIKE 'reginald.kinder@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Reginald' AND last_name LIKE 'Kinder' AND email LIKE 'reginald.kinder@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
@@ -23794,7 +23794,7 @@
       </c>
       <c r="K503" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ruben' AND last_name LIKE 'Geary' AND email LIKE 'ruben.geary@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ruben' AND last_name LIKE 'Geary' AND email LIKE 'ruben.geary@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
@@ -23830,7 +23830,7 @@
       </c>
       <c r="K504" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Brett' AND last_name LIKE 'Cornwell' AND email LIKE 'brett.cornwell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Brett' AND last_name LIKE 'Cornwell' AND email LIKE 'brett.cornwell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
@@ -23866,7 +23866,7 @@
       </c>
       <c r="K505" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Angel' AND last_name LIKE 'Barclay' AND email LIKE 'angel.barclay@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Angel' AND last_name LIKE 'Barclay' AND email LIKE 'angel.barclay@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
@@ -23902,7 +23902,7 @@
       </c>
       <c r="K506" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Nathaniel' AND last_name LIKE 'Adam' AND email LIKE 'nathaniel.adam@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Nathaniel' AND last_name LIKE 'Adam' AND email LIKE 'nathaniel.adam@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
@@ -23938,7 +23938,7 @@
       </c>
       <c r="K507" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rafael' AND last_name LIKE 'Abney' AND email LIKE 'rafael.abney@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rafael' AND last_name LIKE 'Abney' AND email LIKE 'rafael.abney@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
@@ -23974,7 +23974,7 @@
       </c>
       <c r="K508" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Leslie' AND last_name LIKE 'Seward' AND email LIKE 'leslie.seward@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Leslie' AND last_name LIKE 'Seward' AND email LIKE 'leslie.seward@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
@@ -24010,7 +24010,7 @@
       </c>
       <c r="K509" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Edgar' AND last_name LIKE 'Rhoads' AND email LIKE 'edgar.rhoads@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Edgar' AND last_name LIKE 'Rhoads' AND email LIKE 'edgar.rhoads@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="K510" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Milton' AND last_name LIKE 'Howland' AND email LIKE 'milton.howland@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Milton' AND last_name LIKE 'Howland' AND email LIKE 'milton.howland@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
@@ -24082,7 +24082,7 @@
       </c>
       <c r="K511" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Raul' AND last_name LIKE 'Fortier' AND email LIKE 'raul.fortier@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Raul' AND last_name LIKE 'Fortier' AND email LIKE 'raul.fortier@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
@@ -24118,7 +24118,7 @@
       </c>
       <c r="K512" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ben' AND last_name LIKE 'Easter' AND email LIKE 'ben.easter@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ben' AND last_name LIKE 'Easter' AND email LIKE 'ben.easter@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
@@ -24154,7 +24154,7 @@
       </c>
       <c r="K513" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Chester' AND last_name LIKE 'Benner' AND email LIKE 'chester.benner@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Chester' AND last_name LIKE 'Benner' AND email LIKE 'chester.benner@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
@@ -24190,7 +24190,7 @@
       </c>
       <c r="K514" t="str">
         <f t="shared" si="7"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Cecil' AND last_name LIKE 'Vines' AND email LIKE 'cecil.vines@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Cecil' AND last_name LIKE 'Vines' AND email LIKE 'cecil.vines@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
@@ -24225,8 +24225,8 @@
         <v>1</v>
       </c>
       <c r="K515" t="str">
-        <f t="shared" ref="K515:K578" si="8">CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C515,"' AND last_name LIKE '",$D515,"' AND email LIKE '",$E515,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Duane' AND last_name LIKE 'Tubbs' AND email LIKE 'duane.tubbs@sakilacustomer.org' FROM customer</v>
+        <f t="shared" ref="K515:K578" si="8">CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C515,"' AND last_name LIKE '",$D515,"' AND email LIKE '",$E515,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Duane' AND last_name LIKE 'Tubbs' AND email LIKE 'duane.tubbs@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
@@ -24262,7 +24262,7 @@
       </c>
       <c r="K516" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Franklin' AND last_name LIKE 'Troutman' AND email LIKE 'franklin.troutman@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Franklin' AND last_name LIKE 'Troutman' AND email LIKE 'franklin.troutman@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
@@ -24298,7 +24298,7 @@
       </c>
       <c r="K517" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Andre' AND last_name LIKE 'Rapp' AND email LIKE 'andre.rapp@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Andre' AND last_name LIKE 'Rapp' AND email LIKE 'andre.rapp@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
@@ -24334,7 +24334,7 @@
       </c>
       <c r="K518" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Elmer' AND last_name LIKE 'Noe' AND email LIKE 'elmer.noe@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Elmer' AND last_name LIKE 'Noe' AND email LIKE 'elmer.noe@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
@@ -24370,7 +24370,7 @@
       </c>
       <c r="K519" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Brad' AND last_name LIKE 'Mccurdy' AND email LIKE 'brad.mccurdy@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Brad' AND last_name LIKE 'Mccurdy' AND email LIKE 'brad.mccurdy@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
@@ -24406,7 +24406,7 @@
       </c>
       <c r="K520" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Gabriel' AND last_name LIKE 'Harder' AND email LIKE 'gabriel.harder@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Gabriel' AND last_name LIKE 'Harder' AND email LIKE 'gabriel.harder@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
@@ -24442,7 +24442,7 @@
       </c>
       <c r="K521" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ron' AND last_name LIKE 'Deluca' AND email LIKE 'ron.deluca@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ron' AND last_name LIKE 'Deluca' AND email LIKE 'ron.deluca@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
@@ -24478,7 +24478,7 @@
       </c>
       <c r="K522" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Mitchell' AND last_name LIKE 'Westmoreland' AND email LIKE 'mitchell.westmoreland@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Mitchell' AND last_name LIKE 'Westmoreland' AND email LIKE 'mitchell.westmoreland@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
@@ -24514,7 +24514,7 @@
       </c>
       <c r="K523" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Roland' AND last_name LIKE 'South' AND email LIKE 'roland.south@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Roland' AND last_name LIKE 'South' AND email LIKE 'roland.south@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
@@ -24550,7 +24550,7 @@
       </c>
       <c r="K524" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Arnold' AND last_name LIKE 'Havens' AND email LIKE 'arnold.havens@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Arnold' AND last_name LIKE 'Havens' AND email LIKE 'arnold.havens@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="K525" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Harvey' AND last_name LIKE 'Guajardo' AND email LIKE 'harvey.guajardo@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Harvey' AND last_name LIKE 'Guajardo' AND email LIKE 'harvey.guajardo@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
@@ -24622,7 +24622,7 @@
       </c>
       <c r="K526" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Adrian' AND last_name LIKE 'Clary' AND email LIKE 'adrian.clary@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Adrian' AND last_name LIKE 'Clary' AND email LIKE 'adrian.clary@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="K527" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Karl' AND last_name LIKE 'Seal' AND email LIKE 'karl.seal@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Karl' AND last_name LIKE 'Seal' AND email LIKE 'karl.seal@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
@@ -24694,7 +24694,7 @@
       </c>
       <c r="K528" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Cory' AND last_name LIKE 'Meehan' AND email LIKE 'cory.meehan@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Cory' AND last_name LIKE 'Meehan' AND email LIKE 'cory.meehan@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
@@ -24730,7 +24730,7 @@
       </c>
       <c r="K529" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Claude' AND last_name LIKE 'Herzog' AND email LIKE 'claude.herzog@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Claude' AND last_name LIKE 'Herzog' AND email LIKE 'claude.herzog@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
@@ -24766,7 +24766,7 @@
       </c>
       <c r="K530" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Erik' AND last_name LIKE 'Guillen' AND email LIKE 'erik.guillen@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Erik' AND last_name LIKE 'Guillen' AND email LIKE 'erik.guillen@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
@@ -24802,7 +24802,7 @@
       </c>
       <c r="K531" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Darryl' AND last_name LIKE 'Ashcraft' AND email LIKE 'darryl.ashcraft@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Darryl' AND last_name LIKE 'Ashcraft' AND email LIKE 'darryl.ashcraft@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
@@ -24838,7 +24838,7 @@
       </c>
       <c r="K532" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jamie' AND last_name LIKE 'Waugh' AND email LIKE 'jamie.waugh@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jamie' AND last_name LIKE 'Waugh' AND email LIKE 'jamie.waugh@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
@@ -24874,7 +24874,7 @@
       </c>
       <c r="K533" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Neil' AND last_name LIKE 'Renner' AND email LIKE 'neil.renner@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Neil' AND last_name LIKE 'Renner' AND email LIKE 'neil.renner@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
@@ -24910,7 +24910,7 @@
       </c>
       <c r="K534" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jessie' AND last_name LIKE 'Milam' AND email LIKE 'jessie.milam@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jessie' AND last_name LIKE 'Milam' AND email LIKE 'jessie.milam@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
@@ -24946,7 +24946,7 @@
       </c>
       <c r="K535" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Christian' AND last_name LIKE 'Jung' AND email LIKE 'christian.jung@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Christian' AND last_name LIKE 'Jung' AND email LIKE 'christian.jung@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
@@ -24982,7 +24982,7 @@
       </c>
       <c r="K536" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Javier' AND last_name LIKE 'Elrod' AND email LIKE 'javier.elrod@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Javier' AND last_name LIKE 'Elrod' AND email LIKE 'javier.elrod@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
@@ -25018,7 +25018,7 @@
       </c>
       <c r="K537" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Fernando' AND last_name LIKE 'Churchill' AND email LIKE 'fernando.churchill@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Fernando' AND last_name LIKE 'Churchill' AND email LIKE 'fernando.churchill@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
@@ -25054,7 +25054,7 @@
       </c>
       <c r="K538" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Clinton' AND last_name LIKE 'Buford' AND email LIKE 'clinton.buford@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Clinton' AND last_name LIKE 'Buford' AND email LIKE 'clinton.buford@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
@@ -25090,7 +25090,7 @@
       </c>
       <c r="K539" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ted' AND last_name LIKE 'Breaux' AND email LIKE 'ted.breaux@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ted' AND last_name LIKE 'Breaux' AND email LIKE 'ted.breaux@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
@@ -25126,7 +25126,7 @@
       </c>
       <c r="K540" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Mathew' AND last_name LIKE 'Bolin' AND email LIKE 'mathew.bolin@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Mathew' AND last_name LIKE 'Bolin' AND email LIKE 'mathew.bolin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
@@ -25162,7 +25162,7 @@
       </c>
       <c r="K541" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tyrone' AND last_name LIKE 'Asher' AND email LIKE 'tyrone.asher@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tyrone' AND last_name LIKE 'Asher' AND email LIKE 'tyrone.asher@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="K542" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Darren' AND last_name LIKE 'Windham' AND email LIKE 'darren.windham@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Darren' AND last_name LIKE 'Windham' AND email LIKE 'darren.windham@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
@@ -25234,7 +25234,7 @@
       </c>
       <c r="K543" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lonnie' AND last_name LIKE 'Tirado' AND email LIKE 'lonnie.tirado@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lonnie' AND last_name LIKE 'Tirado' AND email LIKE 'lonnie.tirado@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="K544" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Lance' AND last_name LIKE 'Pemberton' AND email LIKE 'lance.pemberton@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Lance' AND last_name LIKE 'Pemberton' AND email LIKE 'lance.pemberton@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
@@ -25306,7 +25306,7 @@
       </c>
       <c r="K545" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Cody' AND last_name LIKE 'Nolen' AND email LIKE 'cody.nolen@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Cody' AND last_name LIKE 'Nolen' AND email LIKE 'cody.nolen@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
@@ -25342,7 +25342,7 @@
       </c>
       <c r="K546" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Julio' AND last_name LIKE 'Noland' AND email LIKE 'julio.noland@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Julio' AND last_name LIKE 'Noland' AND email LIKE 'julio.noland@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
@@ -25378,7 +25378,7 @@
       </c>
       <c r="K547" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kelly' AND last_name LIKE 'Knott' AND email LIKE 'kelly.knott@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kelly' AND last_name LIKE 'Knott' AND email LIKE 'kelly.knott@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
@@ -25414,7 +25414,7 @@
       </c>
       <c r="K548" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kurt' AND last_name LIKE 'Emmons' AND email LIKE 'kurt.emmons@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kurt' AND last_name LIKE 'Emmons' AND email LIKE 'kurt.emmons@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
@@ -25450,7 +25450,7 @@
       </c>
       <c r="K549" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Allan' AND last_name LIKE 'Cornish' AND email LIKE 'allan.cornish@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Allan' AND last_name LIKE 'Cornish' AND email LIKE 'allan.cornish@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
@@ -25486,7 +25486,7 @@
       </c>
       <c r="K550" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Nelson' AND last_name LIKE 'Christenson' AND email LIKE 'nelson.christenson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Nelson' AND last_name LIKE 'Christenson' AND email LIKE 'nelson.christenson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
@@ -25522,7 +25522,7 @@
       </c>
       <c r="K551" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Guy' AND last_name LIKE 'Brownlee' AND email LIKE 'guy.brownlee@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Guy' AND last_name LIKE 'Brownlee' AND email LIKE 'guy.brownlee@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
@@ -25558,7 +25558,7 @@
       </c>
       <c r="K552" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Clayton' AND last_name LIKE 'Barbee' AND email LIKE 'clayton.barbee@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Clayton' AND last_name LIKE 'Barbee' AND email LIKE 'clayton.barbee@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
@@ -25594,7 +25594,7 @@
       </c>
       <c r="K553" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Hugh' AND last_name LIKE 'Waldrop' AND email LIKE 'hugh.waldrop@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Hugh' AND last_name LIKE 'Waldrop' AND email LIKE 'hugh.waldrop@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
@@ -25630,7 +25630,7 @@
       </c>
       <c r="K554" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Max' AND last_name LIKE 'Pitt' AND email LIKE 'max.pitt@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Max' AND last_name LIKE 'Pitt' AND email LIKE 'max.pitt@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
@@ -25666,7 +25666,7 @@
       </c>
       <c r="K555" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dwayne' AND last_name LIKE 'Olvera' AND email LIKE 'dwayne.olvera@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dwayne' AND last_name LIKE 'Olvera' AND email LIKE 'dwayne.olvera@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
@@ -25702,7 +25702,7 @@
       </c>
       <c r="K556" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dwight' AND last_name LIKE 'Lombardi' AND email LIKE 'dwight.lombardi@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dwight' AND last_name LIKE 'Lombardi' AND email LIKE 'dwight.lombardi@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
@@ -25738,7 +25738,7 @@
       </c>
       <c r="K557" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Armando' AND last_name LIKE 'Gruber' AND email LIKE 'armando.gruber@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Armando' AND last_name LIKE 'Gruber' AND email LIKE 'armando.gruber@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
@@ -25774,7 +25774,7 @@
       </c>
       <c r="K558" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Felix' AND last_name LIKE 'Gaffney' AND email LIKE 'felix.gaffney@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Felix' AND last_name LIKE 'Gaffney' AND email LIKE 'felix.gaffney@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
@@ -25810,7 +25810,7 @@
       </c>
       <c r="K559" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jimmie' AND last_name LIKE 'Eggleston' AND email LIKE 'jimmie.eggleston@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jimmie' AND last_name LIKE 'Eggleston' AND email LIKE 'jimmie.eggleston@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
@@ -25846,7 +25846,7 @@
       </c>
       <c r="K560" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Everett' AND last_name LIKE 'Banda' AND email LIKE 'everett.banda@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Everett' AND last_name LIKE 'Banda' AND email LIKE 'everett.banda@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="K561" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jordan' AND last_name LIKE 'Archuleta' AND email LIKE 'jordan.archuleta@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jordan' AND last_name LIKE 'Archuleta' AND email LIKE 'jordan.archuleta@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
@@ -25918,7 +25918,7 @@
       </c>
       <c r="K562" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ian' AND last_name LIKE 'Still' AND email LIKE 'ian.still@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ian' AND last_name LIKE 'Still' AND email LIKE 'ian.still@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
@@ -25954,7 +25954,7 @@
       </c>
       <c r="K563" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Wallace' AND last_name LIKE 'Slone' AND email LIKE 'wallace.slone@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Wallace' AND last_name LIKE 'Slone' AND email LIKE 'wallace.slone@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
@@ -25990,7 +25990,7 @@
       </c>
       <c r="K564" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ken' AND last_name LIKE 'Prewitt' AND email LIKE 'ken.prewitt@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ken' AND last_name LIKE 'Prewitt' AND email LIKE 'ken.prewitt@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
@@ -26026,7 +26026,7 @@
       </c>
       <c r="K565" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Bob' AND last_name LIKE 'Pfeiffer' AND email LIKE 'bob.pfeiffer@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Bob' AND last_name LIKE 'Pfeiffer' AND email LIKE 'bob.pfeiffer@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
@@ -26062,7 +26062,7 @@
       </c>
       <c r="K566" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Jaime' AND last_name LIKE 'Nettles' AND email LIKE 'jaime.nettles@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Jaime' AND last_name LIKE 'Nettles' AND email LIKE 'jaime.nettles@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
@@ -26098,7 +26098,7 @@
       </c>
       <c r="K567" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Casey' AND last_name LIKE 'Mena' AND email LIKE 'casey.mena@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Casey' AND last_name LIKE 'Mena' AND email LIKE 'casey.mena@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
@@ -26134,7 +26134,7 @@
       </c>
       <c r="K568" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Alfredo' AND last_name LIKE 'Mcadams' AND email LIKE 'alfredo.mcadams@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Alfredo' AND last_name LIKE 'Mcadams' AND email LIKE 'alfredo.mcadams@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
@@ -26170,7 +26170,7 @@
       </c>
       <c r="K569" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Alberto' AND last_name LIKE 'Henning' AND email LIKE 'alberto.henning@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Alberto' AND last_name LIKE 'Henning' AND email LIKE 'alberto.henning@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
@@ -26206,7 +26206,7 @@
       </c>
       <c r="K570" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Dave' AND last_name LIKE 'Gardiner' AND email LIKE 'dave.gardiner@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Dave' AND last_name LIKE 'Gardiner' AND email LIKE 'dave.gardiner@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
@@ -26242,7 +26242,7 @@
       </c>
       <c r="K571" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ivan' AND last_name LIKE 'Cromwell' AND email LIKE 'ivan.cromwell@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ivan' AND last_name LIKE 'Cromwell' AND email LIKE 'ivan.cromwell@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
@@ -26278,7 +26278,7 @@
       </c>
       <c r="K572" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Johnnie' AND last_name LIKE 'Chisholm' AND email LIKE 'johnnie.chisholm@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Johnnie' AND last_name LIKE 'Chisholm' AND email LIKE 'johnnie.chisholm@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
@@ -26314,7 +26314,7 @@
       </c>
       <c r="K573" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sidney' AND last_name LIKE 'Burleson' AND email LIKE 'sidney.burleson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sidney' AND last_name LIKE 'Burleson' AND email LIKE 'sidney.burleson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
@@ -26350,7 +26350,7 @@
       </c>
       <c r="K574" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Byron' AND last_name LIKE 'Box' AND email LIKE 'byron.box@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Byron' AND last_name LIKE 'Box' AND email LIKE 'byron.box@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
@@ -26386,7 +26386,7 @@
       </c>
       <c r="K575" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Julian' AND last_name LIKE 'Vest' AND email LIKE 'julian.vest@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Julian' AND last_name LIKE 'Vest' AND email LIKE 'julian.vest@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
@@ -26422,7 +26422,7 @@
       </c>
       <c r="K576" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Isaac' AND last_name LIKE 'Oglesby' AND email LIKE 'isaac.oglesby@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Isaac' AND last_name LIKE 'Oglesby' AND email LIKE 'isaac.oglesby@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
@@ -26458,7 +26458,7 @@
       </c>
       <c r="K577" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Morris' AND last_name LIKE 'Mccarter' AND email LIKE 'morris.mccarter@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Morris' AND last_name LIKE 'Mccarter' AND email LIKE 'morris.mccarter@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="K578" t="str">
         <f t="shared" si="8"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Clifton' AND last_name LIKE 'Malcolm' AND email LIKE 'clifton.malcolm@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Clifton' AND last_name LIKE 'Malcolm' AND email LIKE 'clifton.malcolm@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
@@ -26529,8 +26529,8 @@
         <v>1</v>
       </c>
       <c r="K579" t="str">
-        <f t="shared" ref="K579:K600" si="9">CONCATENATE("SELECT customer_id, first_name, last_name, email WHERE first_name LIKE '",C579,"' AND last_name LIKE '",$D579,"' AND email LIKE '",$E579,"' FROM customer")</f>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Willard' AND last_name LIKE 'Lumpkin' AND email LIKE 'willard.lumpkin@sakilacustomer.org' FROM customer</v>
+        <f t="shared" ref="K579:K600" si="9">CONCATENATE("SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE '",$C579,"' AND last_name LIKE '",$D579,"' AND email LIKE '",$E579,"' ")</f>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Willard' AND last_name LIKE 'Lumpkin' AND email LIKE 'willard.lumpkin@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
@@ -26566,7 +26566,7 @@
       </c>
       <c r="K580" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Daryl' AND last_name LIKE 'Larue' AND email LIKE 'daryl.larue@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Daryl' AND last_name LIKE 'Larue' AND email LIKE 'daryl.larue@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
@@ -26602,7 +26602,7 @@
       </c>
       <c r="K581" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Ross' AND last_name LIKE 'Grey' AND email LIKE 'ross.grey@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Ross' AND last_name LIKE 'Grey' AND email LIKE 'ross.grey@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
@@ -26638,7 +26638,7 @@
       </c>
       <c r="K582" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Virgil' AND last_name LIKE 'Wofford' AND email LIKE 'virgil.wofford@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Virgil' AND last_name LIKE 'Wofford' AND email LIKE 'virgil.wofford@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
@@ -26674,7 +26674,7 @@
       </c>
       <c r="K583" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Andy' AND last_name LIKE 'Vanhorn' AND email LIKE 'andy.vanhorn@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Andy' AND last_name LIKE 'Vanhorn' AND email LIKE 'andy.vanhorn@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
@@ -26710,7 +26710,7 @@
       </c>
       <c r="K584" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marshall' AND last_name LIKE 'Thorn' AND email LIKE 'marshall.thorn@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marshall' AND last_name LIKE 'Thorn' AND email LIKE 'marshall.thorn@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
@@ -26746,7 +26746,7 @@
       </c>
       <c r="K585" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Salvador' AND last_name LIKE 'Teel' AND email LIKE 'salvador.teel@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Salvador' AND last_name LIKE 'Teel' AND email LIKE 'salvador.teel@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
@@ -26782,7 +26782,7 @@
       </c>
       <c r="K586" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Perry' AND last_name LIKE 'Swafford' AND email LIKE 'perry.swafford@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Perry' AND last_name LIKE 'Swafford' AND email LIKE 'perry.swafford@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
@@ -26818,7 +26818,7 @@
       </c>
       <c r="K587" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kirk' AND last_name LIKE 'Stclair' AND email LIKE 'kirk.stclair@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kirk' AND last_name LIKE 'Stclair' AND email LIKE 'kirk.stclair@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
@@ -26854,7 +26854,7 @@
       </c>
       <c r="K588" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Sergio' AND last_name LIKE 'Stanfield' AND email LIKE 'sergio.stanfield@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Sergio' AND last_name LIKE 'Stanfield' AND email LIKE 'sergio.stanfield@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
@@ -26890,7 +26890,7 @@
       </c>
       <c r="K589" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Marion' AND last_name LIKE 'Ocampo' AND email LIKE 'marion.ocampo@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Marion' AND last_name LIKE 'Ocampo' AND email LIKE 'marion.ocampo@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
@@ -26926,7 +26926,7 @@
       </c>
       <c r="K590" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Tracy' AND last_name LIKE 'Herrmann' AND email LIKE 'tracy.herrmann@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Tracy' AND last_name LIKE 'Herrmann' AND email LIKE 'tracy.herrmann@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
@@ -26962,7 +26962,7 @@
       </c>
       <c r="K591" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Seth' AND last_name LIKE 'Hannon' AND email LIKE 'seth.hannon@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Seth' AND last_name LIKE 'Hannon' AND email LIKE 'seth.hannon@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
@@ -26998,7 +26998,7 @@
       </c>
       <c r="K592" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Kent' AND last_name LIKE 'Arsenault' AND email LIKE 'kent.arsenault@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Kent' AND last_name LIKE 'Arsenault' AND email LIKE 'kent.arsenault@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
@@ -27034,7 +27034,7 @@
       </c>
       <c r="K593" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Terrance' AND last_name LIKE 'Roush' AND email LIKE 'terrance.roush@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Terrance' AND last_name LIKE 'Roush' AND email LIKE 'terrance.roush@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
@@ -27070,7 +27070,7 @@
       </c>
       <c r="K594" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Rene' AND last_name LIKE 'Mcalister' AND email LIKE 'rene.mcalister@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Rene' AND last_name LIKE 'Mcalister' AND email LIKE 'rene.mcalister@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="K595" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Eduardo' AND last_name LIKE 'Hiatt' AND email LIKE 'eduardo.hiatt@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Eduardo' AND last_name LIKE 'Hiatt' AND email LIKE 'eduardo.hiatt@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
@@ -27142,7 +27142,7 @@
       </c>
       <c r="K596" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Terrence' AND last_name LIKE 'Gunderson' AND email LIKE 'terrence.gunderson@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Terrence' AND last_name LIKE 'Gunderson' AND email LIKE 'terrence.gunderson@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
@@ -27178,7 +27178,7 @@
       </c>
       <c r="K597" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Enrique' AND last_name LIKE 'Forsythe' AND email LIKE 'enrique.forsythe@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Enrique' AND last_name LIKE 'Forsythe' AND email LIKE 'enrique.forsythe@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
@@ -27214,7 +27214,7 @@
       </c>
       <c r="K598" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Freddie' AND last_name LIKE 'Duggan' AND email LIKE 'freddie.duggan@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Freddie' AND last_name LIKE 'Duggan' AND email LIKE 'freddie.duggan@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="K599" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Wade' AND last_name LIKE 'Delvalle' AND email LIKE 'wade.delvalle@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Wade' AND last_name LIKE 'Delvalle' AND email LIKE 'wade.delvalle@sakilacustomer.org' </v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
@@ -27286,7 +27286,7 @@
       </c>
       <c r="K600" t="str">
         <f t="shared" si="9"/>
-        <v>SELECT customer_id, first_name, last_name, email WHERE first_name LIKE 'Austin' AND last_name LIKE 'Cintron' AND email LIKE 'austin.cintron@sakilacustomer.org' FROM customer</v>
+        <v xml:space="preserve">SELECT customer_id, first_name, last_name, email FROM customer WHERE first_name LIKE 'Austin' AND last_name LIKE 'Cintron' AND email LIKE 'austin.cintron@sakilacustomer.org' </v>
       </c>
     </row>
   </sheetData>
